--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3EAF511-301C-2F41-A4E6-9BA42E99B783}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E533DB4-5AC5-9749-A678-8B178D76A3FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
     <t>Default title for Checklist</t>
   </si>
   <si>
-    <t>Scenario2_checklist</t>
+    <t>SFM_Auto_2372018162541</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="8" width="9.83203125" customWidth="1"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a212613162/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E71B91A-A7AD-7A43-9E65-F42A278E9061}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86502604-A505-CF4D-B6BC-3FD830298713}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>scenario5</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>Billing Type cannot be Loan</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
   </si>
 </sst>
 </file>
@@ -565,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -577,7 +616,7 @@
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -780,7 +819,7 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -795,6 +834,92 @@
       <c r="E7" s="11" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="8" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a212613162/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86502604-A505-CF4D-B6BC-3FD830298713}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6ABDB66-8436-8F4A-B1AB-76565B7B9F34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -607,7 +607,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -797,12 +797,14 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -829,9 +831,12 @@
         <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
     </row>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6ABDB66-8436-8F4A-B1AB-76565B7B9F34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F106733-491E-8340-A505-85E46D1B77B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -607,13 +607,13 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -750,9 +750,11 @@
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -773,15 +775,17 @@
         <v>29</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7"/>
       <c r="G5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -825,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>31</v>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F106733-491E-8340-A505-85E46D1B77B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0DB9829-F714-B749-94DC-5427184E8A13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>Cases</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
 </sst>
 </file>
@@ -216,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +251,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -290,6 +308,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -623,7 +644,7 @@
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +699,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -716,7 +737,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -739,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -770,7 +791,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -790,7 +811,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -824,7 +845,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
@@ -844,7 +865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -878,7 +899,7 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
@@ -898,23 +919,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
@@ -922,13 +965,36 @@
         <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0DB9829-F714-B749-94DC-5427184E8A13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B9CCC3-ED14-614C-A275-FEFA52318712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>v1</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
   </si>
 </sst>
 </file>
@@ -625,20 +640,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
@@ -996,6 +1011,65 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
+    <row r="12" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0DB9829-F714-B749-94DC-5427184E8A13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -185,12 +192,21 @@
   </si>
   <si>
     <t>v1</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>RS-10554-mapping-manual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -311,6 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,11 +641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -996,6 +1013,67 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
+    <row r="12" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512D611-1F43-6B45-8C41-2475F9D9A6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -201,12 +202,36 @@
   </si>
   <si>
     <t>RS-10554-mapping-manual</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1074,6 +1099,94 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512D611-1F43-6B45-8C41-2475F9D9A6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7D3885-9CC2-3E47-9863-66C2B1F67010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_3_RS-10579_ Entry_Exit_Criteria</t>
   </si>
 </sst>
 </file>
@@ -667,19 +676,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -1187,6 +1196,46 @@
       </c>
       <c r="G17" s="5"/>
     </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7D3885-9CC2-3E47-9863-66C2B1F67010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B265C-8E09-FE4B-B2B9-2FFDB7472819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -234,7 +234,16 @@
     <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
   </si>
   <si>
-    <t>Manual_SCN_Checklist_3_RS-10579_ Entry_Exit_Criteria</t>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
   </si>
 </sst>
 </file>
@@ -676,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1245,46 @@
         <v>62</v>
       </c>
     </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B265C-8E09-FE4B-B2B9-2FFDB7472819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -244,12 +243,18 @@
   </si>
   <si>
     <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>RS_10557_592018151910</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1189,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1210,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>71</v>
       </c>
@@ -1284,6 +1289,67 @@
       <c r="F21" s="11" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="22" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -245,10 +245,10 @@
     <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
   </si>
   <si>
-    <t>RS_10557_592018151910</t>
-  </si>
-  <si>
     <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>RS_10557_592018205141</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="22" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="23" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>41</v>
@@ -1331,7 +1331,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F0EE8E-DFFB-1B47-BEEB-E48676A40ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -236,9 +237,6 @@
     <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
   </si>
   <si>
-    <t>ManualSCN_Checklist_4_RS10580_Checklist_Sections</t>
-  </si>
-  <si>
     <t>SCN_Checklist_4_RS-10580_Sections</t>
   </si>
   <si>
@@ -249,12 +247,15 @@
   </si>
   <si>
     <t>RS_10557_592018205141</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1253,7 @@
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>19</v>
@@ -1272,7 +1273,7 @@
     </row>
     <row r="21" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>41</v>
@@ -1284,7 +1285,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>62</v>
@@ -1292,7 +1293,7 @@
     </row>
     <row r="22" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="23" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>41</v>
@@ -1331,7 +1332,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Installed Product</t>
   </si>
   <si>
-    <t>RS-10554-mapping-manual</t>
-  </si>
-  <si>
     <t>SCN_Checklist_1_RS-10577_SOU</t>
   </si>
   <si>
@@ -249,13 +246,31 @@
   </si>
   <si>
     <t>RS_10557_592018205141</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>RS_10554_7920189427</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +306,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -348,10 +376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -376,8 +405,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,10 +1132,10 @@
       <c r="C13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="D13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1124,7 +1155,7 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1142,12 +1173,12 @@
         <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>41</v>
@@ -1159,18 +1190,18 @@
         <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1185,13 +1216,13 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>41</v>
@@ -1203,16 +1234,16 @@
         <v>43</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>19</v>
@@ -1227,12 +1258,12 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>41</v>
@@ -1244,15 +1275,15 @@
         <v>43</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>19</v>
@@ -1267,12 +1298,12 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>41</v>
@@ -1284,15 +1315,15 @@
         <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -1322,7 +1353,7 @@
     </row>
     <row r="23" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>41</v>
@@ -1330,8 +1361,8 @@
       <c r="C23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>73</v>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1351,6 +1382,71 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
+    <row r="24" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B020E5-25B3-9444-82E5-0B27A29B8FBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -264,12 +265,21 @@
   </si>
   <si>
     <t>RS_10554_7920189427</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -720,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1447,6 +1457,40 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
+    <row r="26" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B020E5-25B3-9444-82E5-0B27A29B8FBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA7B09-B392-1D41-AC2D-4A600F739F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA7B09-B392-1D41-AC2D-4A600F739F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B8B543C-C8BD-BE49-BA58-14BD615072E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -156,15 +156,9 @@
     <t>AUTOMATION SEARCH</t>
   </si>
   <si>
-    <t>scenario5</t>
-  </si>
-  <si>
     <t>Work Orders</t>
   </si>
   <si>
-    <t>Billing Type cannot be Loan</t>
-  </si>
-  <si>
     <t>Loan</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>OrderStatus</t>
   </si>
   <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -274,13 +265,22 @@
   </si>
   <si>
     <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Sanity_Scenario6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +322,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3933FF"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -390,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,7 +915,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>32</v>
@@ -962,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>33</v>
@@ -973,12 +980,12 @@
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1005,29 +1012,29 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
@@ -1042,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>40</v>
@@ -1065,28 +1072,28 @@
     </row>
     <row r="11" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1104,7 +1111,7 @@
     </row>
     <row r="12" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>19</v>
@@ -1134,16 +1141,16 @@
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
@@ -1165,7 +1172,7 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1183,12 +1190,12 @@
         <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>41</v>
@@ -1197,21 +1204,21 @@
         <v>31</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1226,13 +1233,13 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>41</v>
@@ -1241,19 +1248,19 @@
         <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>19</v>
@@ -1268,12 +1275,12 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>41</v>
@@ -1282,18 +1289,18 @@
         <v>31</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>19</v>
@@ -1308,12 +1315,12 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>41</v>
@@ -1322,18 +1329,18 @@
         <v>31</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -1363,16 +1370,16 @@
     </row>
     <row r="23" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1394,7 +1401,7 @@
     </row>
     <row r="24" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -1406,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1426,19 +1433,19 @@
     </row>
     <row r="25" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1459,7 +1466,7 @@
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>19</v>
@@ -1471,24 +1478,24 @@
         <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B020E5-25B3-9444-82E5-0B27A29B8FBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -246,27 +245,12 @@
     <t>RS-10557_mapping</t>
   </si>
   <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
     <t>RS-10556_mapping</t>
   </si>
   <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
     <t>WorkOrder Number</t>
   </si>
   <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
     <t>SCN_SourceObjectUpdate_RS_10544</t>
   </si>
   <si>
@@ -274,12 +258,33 @@
   </si>
   <si>
     <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10556_149201814101</t>
+  </si>
+  <si>
+    <t>WO-00002321</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,14 +322,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +358,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -386,9 +383,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -415,10 +411,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -730,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,10 +737,11 @@
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
@@ -1143,7 +1139,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
@@ -1371,8 +1367,8 @@
       <c r="C23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>72</v>
+      <c r="D23" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1394,7 +1390,7 @@
     </row>
     <row r="24" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -1406,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1426,19 +1422,19 @@
     </row>
     <row r="25" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1459,7 +1455,7 @@
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>19</v>
@@ -1476,13 +1472,13 @@
     </row>
     <row r="27" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>43</v>
@@ -1490,6 +1486,71 @@
       <c r="E27" s="11" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="28" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+    </row>
+    <row r="29" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DEB3A-AB44-D942-9898-E65CCE5B9EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -245,12 +246,27 @@
     <t>RS-10557_mapping</t>
   </si>
   <si>
+    <t>RS_10557_592018205141</t>
+  </si>
+  <si>
     <t>RS-10556_mapping</t>
   </si>
   <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
     <t>WorkOrder Number</t>
   </si>
   <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>RS_10554_7920189427</t>
+  </si>
+  <si>
     <t>SCN_SourceObjectUpdate_RS_10544</t>
   </si>
   <si>
@@ -260,13 +276,13 @@
     <t>Manual_RS_10544_SOU</t>
   </si>
   <si>
-    <t>RS_10554_field_mapping</t>
-  </si>
-  <si>
-    <t>RS_10556_149201814101</t>
-  </si>
-  <si>
-    <t>WO-00002321</t>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Manual_SCN_10550_DVR</t>
   </si>
   <si>
     <t>RS_10566_Acc_Pro_History</t>
@@ -276,16 +292,13 @@
   </si>
   <si>
     <t>View Work Order</t>
-  </si>
-  <si>
-    <t>RS_10557_Child_Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,12 +335,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF424242"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -383,10 +410,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -411,9 +439,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,11 +756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -737,11 +768,10 @@
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
@@ -1139,7 +1169,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
@@ -1367,8 +1397,8 @@
       <c r="C23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>83</v>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1390,7 +1420,7 @@
     </row>
     <row r="24" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -1402,7 +1432,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1422,19 +1452,19 @@
     </row>
     <row r="25" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1455,7 +1485,7 @@
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>19</v>
@@ -1472,13 +1502,13 @@
     </row>
     <row r="27" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>43</v>
@@ -1487,70 +1517,73 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-    </row>
-    <row r="29" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="17" t="s">
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DEB3A-AB44-D942-9898-E65CCE5B9EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7E1EC-A3E9-EE42-B8FA-B59C0EE39D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Data_SCN_DVR_RS_10550</t>
   </si>
   <si>
-    <t>Manual_SCN_10550_DVR</t>
-  </si>
-  <si>
     <t>RS_10566_Acc_Pro_History</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>View Work Order</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
   </si>
 </sst>
 </file>
@@ -339,6 +339,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1530,9 +1531,7 @@
       <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
@@ -1542,18 +1541,16 @@
         <v>41</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>19</v>
@@ -1562,7 +1559,7 @@
         <v>38</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>58</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>41</v>
@@ -1579,10 +1576,10 @@
         <v>43</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7E1EC-A3E9-EE42-B8FA-B59C0EE39D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682080E3-8C8F-064F-AA5A-06C239F1C818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
   </si>
 </sst>
 </file>
@@ -758,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -770,8 +782,8 @@
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
@@ -1582,6 +1594,52 @@
         <v>84</v>
       </c>
     </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682080E3-8C8F-064F-AA5A-06C239F1C818}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9B0AB2F-E47D-014D-934B-F65256171008}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -310,13 +310,22 @@
   </si>
   <si>
     <t>Work Order Number</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,26 +771,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +845,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -874,7 +883,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -897,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -928,7 +937,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -948,7 +957,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -982,7 +991,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1045,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1094,7 +1103,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1133,9 +1142,9 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -1146,16 +1155,24 @@
       <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -1163,22 +1180,31 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
-      <c r="A13" t="s">
-        <v>55</v>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1193,55 +1219,69 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>60</v>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>15</v>
@@ -1255,13 +1295,16 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>32</v>
@@ -1273,15 +1316,18 @@
         <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -1299,9 +1345,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>32</v>
@@ -1313,15 +1359,15 @@
         <v>34</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
@@ -1339,9 +1385,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>32</v>
@@ -1353,76 +1399,55 @@
         <v>34</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="A23" t="s">
-        <v>72</v>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>15</v>
@@ -1433,9 +1458,7 @@
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1452,22 +1475,20 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1485,43 +1506,74 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>80</v>
+      <c r="E26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -1532,113 +1584,147 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="E29" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" t="s">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>92</v>
       </c>
     </row>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>Work Order Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>WO-00002485</t>
+  </si>
+  <si>
+    <t>P1053820920189436</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>IB1053820920189437</t>
   </si>
 </sst>
 </file>
@@ -360,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -426,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -447,6 +474,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,7 +794,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1633,13 +1662,34 @@
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="16" t="s">
         <v>93</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>IB1053820920189437</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name </t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
   </si>
 </sst>
 </file>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1692,6 +1704,23 @@
         <v>100</v>
       </c>
     </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -343,12 +343,25 @@
   </si>
   <si>
     <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>WO-00002602</t>
+  </si>
+  <si>
+    <t>P1053925920181250191</t>
+  </si>
+  <si>
+    <t>P1053925920181250192</t>
+  </si>
+  <si>
+    <t>AutoScon259201812555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -811,15 +824,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1721,6 +1734,20 @@
         <v>104</v>
       </c>
     </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -263,9 +263,6 @@
     <t>RS_10554_field_mapping</t>
   </si>
   <si>
-    <t>RS_10556_149201814101</t>
-  </si>
-  <si>
     <t>WO-00002321</t>
   </si>
   <si>
@@ -279,6 +276,30 @@
   </si>
   <si>
     <t>RS_10557_Child_Mapping</t>
+  </si>
+  <si>
+    <t>Manual_SCN_10550_DVR</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>WO-00002603</t>
   </si>
 </sst>
 </file>
@@ -726,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1389,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1431,10 +1452,10 @@
         <v>43</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1489,7 +1510,7 @@
     </row>
     <row r="28" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>19</v>
@@ -1498,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>58</v>
@@ -1521,7 +1542,7 @@
     </row>
     <row r="29" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>41</v>
@@ -1530,10 +1551,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="11"/>
@@ -1552,6 +1573,136 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
+    <row r="30" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+    </row>
+    <row r="31" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+    </row>
+    <row r="32" spans="1:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+    </row>
+    <row r="33" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="112">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -336,7 +336,7 @@
     <t>SCN_GetPriceSCON_RS_10539</t>
   </si>
   <si>
-    <t>Product1 Name </t>
+    <t>Product1 Name</t>
   </si>
   <si>
     <t>Product2 Name</t>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>AutoScon259201812555</t>
+  </si>
+  <si>
+    <t>WO-00002616</t>
+  </si>
+  <si>
+    <t>P105382592018152038</t>
+  </si>
+  <si>
+    <t>IB105382592018152039</t>
   </si>
 </sst>
 </file>
@@ -816,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1705,16 +1714,16 @@
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
@@ -1734,7 +1743,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="B37" t="s">
         <v>105</v>
       </c>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -321,16 +321,16 @@
     <t>Installed Product Name</t>
   </si>
   <si>
-    <t>WO-00002485</t>
-  </si>
-  <si>
-    <t>P1053820920189436</t>
+    <t>WO-00002616</t>
+  </si>
+  <si>
+    <t>P105382592018152038</t>
   </si>
   <si>
     <t>AutoA10538_Auto</t>
   </si>
   <si>
-    <t>IB1053820920189437</t>
+    <t>IB105382592018152039</t>
   </si>
   <si>
     <t>SCN_GetPriceSCON_RS_10539</t>
@@ -355,22 +355,12 @@
   </si>
   <si>
     <t>AutoScon259201812555</t>
-  </si>
-  <si>
-    <t>WO-00002616</t>
-  </si>
-  <si>
-    <t>P105382592018152038</t>
-  </si>
-  <si>
-    <t>IB105382592018152039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -825,23 +815,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1714,16 +1704,16 @@
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
@@ -1755,6 +1745,14 @@
       </c>
       <c r="E37" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>AutoScon259201812555</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
   </si>
 </sst>
 </file>
@@ -815,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1734,6 +1737,9 @@
       </c>
     </row>
     <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
       <c r="B37" t="s">
         <v>105</v>
       </c>
@@ -1749,10 +1755,15 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -358,12 +358,28 @@
   </si>
   <si>
     <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002770</t>
+  </si>
+  <si>
+    <t>WO-00002777</t>
+  </si>
+  <si>
+    <t>WO-00002779</t>
+  </si>
+  <si>
+    <t>WO-00002782</t>
+  </si>
+  <si>
+    <t>WO-00002786</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -826,15 +842,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1765,6 +1781,9 @@
       <c r="A39" t="s">
         <v>109</v>
       </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>WO-00002786</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1785,7 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682080E3-8C8F-064F-AA5A-06C239F1C818}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76B0EE-5B75-124B-8B7B-44150251E872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="124">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -360,30 +360,53 @@
     <t>SCN_GetPriceNotCovered_RS_10532</t>
   </si>
   <si>
-    <t>WO-00002770</t>
-  </si>
-  <si>
-    <t>WO-00002777</t>
-  </si>
-  <si>
-    <t>WO-00002779</t>
-  </si>
-  <si>
-    <t>WO-00002782</t>
-  </si>
-  <si>
-    <t>WO-00002786</t>
-  </si>
-  <si>
     <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,26 +860,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +935,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -949,7 +973,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -972,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +1027,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1047,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1057,7 +1081,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1077,7 +1101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1111,7 +1135,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -1131,7 +1155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1193,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1232,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>55</v>
       </c>
@@ -1238,7 +1262,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1268,7 +1292,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1291,7 +1315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -1314,7 +1338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
@@ -1334,7 +1358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -1354,7 +1378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>67</v>
       </c>
@@ -1394,7 +1418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
@@ -1414,7 +1438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
@@ -1434,7 +1458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>72</v>
       </c>
@@ -1464,7 +1488,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1495,7 +1519,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>74</v>
       </c>
@@ -1527,7 +1551,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1560,7 +1584,7 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
@@ -1577,7 +1601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>80</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1609,7 +1633,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -1624,7 +1648,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>85</v>
       </c>
@@ -1641,7 +1665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>85</v>
       </c>
@@ -1658,7 +1682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
@@ -1681,7 +1705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>89</v>
       </c>
@@ -1704,7 +1728,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -1755,7 +1779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1772,7 +1796,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -1780,13 +1804,124 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>109</v>
       </c>
       <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="B43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76B0EE-5B75-124B-8B7B-44150251E872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -400,13 +399,40 @@
   </si>
   <si>
     <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>WO-00002848</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +474,11 @@
       <color rgb="FF424242"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -522,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -541,10 +572,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -859,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,20 +1681,20 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1678,7 +1711,7 @@
       <c r="D31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1705,7 +1738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>89</v>
       </c>
@@ -1728,24 +1761,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1762,24 +1795,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1796,15 +1829,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -1812,7 +1845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>111</v>
       </c>
@@ -1835,7 +1868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>112</v>
       </c>
@@ -1858,7 +1891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>123</v>
       </c>
@@ -1887,7 +1920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
@@ -1916,12 +1949,139 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="8"/>
+    <row r="44" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DAB568F4E83DBE4C96D2FA2EB81DF19D7D9DC7B2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -371,12 +372,27 @@
     <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
   </si>
   <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
     <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
   </si>
   <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
     <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
   </si>
   <si>
@@ -386,21 +402,6 @@
     <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
   </si>
   <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
     <t>RS_10565_Recent_Items</t>
   </si>
   <si>
@@ -426,13 +427,16 @@
   </si>
   <si>
     <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,8 +579,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -892,28 +894,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A48" sqref="A48:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +970,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1008,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1062,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1082,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1114,7 +1116,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1168,7 +1170,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1226,7 +1228,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1265,7 +1267,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>55</v>
       </c>
@@ -1295,7 +1297,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1325,7 +1327,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1348,7 +1350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>67</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>72</v>
       </c>
@@ -1521,7 +1523,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1552,7 +1554,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>74</v>
       </c>
@@ -1584,7 +1586,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1617,7 +1619,7 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>80</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1666,7 +1668,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -1681,7 +1683,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>85</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>85</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>89</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -1837,7 +1839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>111</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>112</v>
       </c>
@@ -1888,12 +1890,12 @@
         <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>15</v>
@@ -1905,13 +1907,13 @@
         <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>59</v>
@@ -1920,9 +1922,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="15" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>32</v>
@@ -1934,22 +1936,22 @@
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>124</v>
       </c>
@@ -1981,23 +1983,22 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:21" ht="15" customHeight="1">
+      <c r="A45" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="17"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -2014,7 +2015,7 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>129</v>
       </c>
@@ -2048,23 +2049,23 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:21" ht="15" customHeight="1">
+      <c r="A47" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" t="s">
         <v>132</v>
       </c>
       <c r="G47" s="8"/>
@@ -2083,6 +2084,19 @@
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
     </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1">
+      <c r="A48" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" customHeight="1">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DAB568F4E83DBE4C96D2FA2EB81DF19D7D9DC7B2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3BD935A-4D56-F945-A9CA-6616B754BD19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="145">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -165,12 +165,6 @@
     <t>DATA_SANITY5</t>
   </si>
   <si>
-    <t>scenario5</t>
-  </si>
-  <si>
-    <t>Billing Type cannot be Loan</t>
-  </si>
-  <si>
     <t>Loan</t>
   </si>
   <si>
@@ -430,13 +424,52 @@
   </si>
   <si>
     <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +516,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF3933FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -557,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,6 +619,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,27 +937,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A48" sqref="A48:B48"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +1012,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1050,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +1073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1062,7 +1104,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1124,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1158,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1136,23 +1178,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3"/>
@@ -1170,29 +1212,29 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>45</v>
+      <c r="C9" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1207,7 +1249,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>43</v>
@@ -1228,30 +1270,30 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1267,9 +1309,9 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -1280,16 +1322,24 @@
       <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -1297,22 +1347,31 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
-      <c r="A13" t="s">
-        <v>55</v>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1327,301 +1386,386 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>70</v>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="A23" t="s">
-        <v>72</v>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
-      <c r="A25" t="s">
-        <v>74</v>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -1633,29 +1777,35 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -1666,26 +1816,36 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+      <c r="E28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="E29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
@@ -1694,162 +1854,222 @@
         <v>30</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>89</v>
+      <c r="E32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>72</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1">
+      <c r="E35" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
-      <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -1864,15 +2084,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
@@ -1884,217 +2104,347 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="B50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="G50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="D52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+    </row>
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="E54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+    </row>
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-    </row>
-    <row r="46" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="10" t="s">
+      <c r="E55" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="F55" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+    </row>
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
-      <c r="A48" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1">
-      <c r="A49" t="s">
-        <v>133</v>
+      <c r="B56" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -430,12 +430,22 @@
   </si>
   <si>
     <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>WO-00002908</t>
+  </si>
+  <si>
+    <t>WO-00002910</t>
+  </si>
+  <si>
+    <t>WO-00002919</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -903,16 +913,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2096,6 +2106,9 @@
       <c r="A49" t="s">
         <v>133</v>
       </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DAB568F4E83DBE4C96D2FA2EB81DF19D7D9DC7B2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10A198CB-A686-D14F-B3D9-4399C3D27E58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="146">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -165,12 +165,6 @@
     <t>DATA_SANITY5</t>
   </si>
   <si>
-    <t>scenario5</t>
-  </si>
-  <si>
-    <t>Billing Type cannot be Loan</t>
-  </si>
-  <si>
     <t>Loan</t>
   </si>
   <si>
@@ -432,21 +426,53 @@
     <t>SCN_GetPrice_RS_10534</t>
   </si>
   <si>
-    <t>WO-00002908</t>
-  </si>
-  <si>
-    <t>WO-00002910</t>
-  </si>
-  <si>
     <t>WO-00002919</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +519,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF3933FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -567,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -590,6 +622,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,27 +940,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A48" sqref="A48:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1015,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +1053,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1107,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1092,7 +1127,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1126,7 +1161,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1146,23 +1181,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3"/>
@@ -1180,29 +1215,29 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>45</v>
+      <c r="C9" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1217,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>43</v>
@@ -1238,30 +1273,30 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1277,9 +1312,9 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -1290,16 +1325,24 @@
       <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -1307,22 +1350,31 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
-      <c r="A13" t="s">
-        <v>55</v>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1337,301 +1389,386 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>70</v>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="A23" t="s">
-        <v>72</v>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
-      <c r="A25" t="s">
-        <v>74</v>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -1643,29 +1780,35 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -1676,26 +1819,36 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+      <c r="E28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="E29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
@@ -1704,162 +1857,222 @@
         <v>30</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>89</v>
+      <c r="E32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>72</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1">
+      <c r="E35" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
-      <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -1874,15 +2087,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
@@ -1894,220 +2107,350 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="B50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="G50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="D52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+    </row>
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="E54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+    </row>
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-    </row>
-    <row r="46" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="10" t="s">
+      <c r="E55" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="F55" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+    </row>
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F47" t="s">
+      <c r="B56" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
         <v>132</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
-      <c r="A48" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1">
-      <c r="A49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21002"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10A198CB-A686-D14F-B3D9-4399C3D27E58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10A198CB-A686-D14F-B3D9-4399C3D27E58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="157">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -165,6 +165,12 @@
     <t>DATA_SANITY5</t>
   </si>
   <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
     <t>Loan</t>
   </si>
   <si>
@@ -189,6 +195,39 @@
     <t>v1</t>
   </si>
   <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
     <t>RS-10554_mapping</t>
   </si>
   <si>
@@ -348,7 +387,10 @@
     <t>P1053925920181250192</t>
   </si>
   <si>
-    <t>AutoScon259201812555</t>
+    <t>AutoScon259201810214</t>
+  </si>
+  <si>
+    <t>AutoA10539_Auto</t>
   </si>
   <si>
     <t>SCN_GetPriceNotCovered_RS_10532</t>
@@ -426,53 +468,45 @@
     <t>SCN_GetPrice_RS_10534</t>
   </si>
   <si>
-    <t>WO-00002919</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003028</t>
+  </si>
+  <si>
+    <t>WO-00003034</t>
+  </si>
+  <si>
+    <t>WO-00003036</t>
+  </si>
+  <si>
+    <t>WO-00003041</t>
+  </si>
+  <si>
+    <t>WO-00003044</t>
+  </si>
+  <si>
+    <t>WO-00003046</t>
+  </si>
+  <si>
+    <t>WO-00003051</t>
+  </si>
+  <si>
+    <t>WO-00003053</t>
+  </si>
+  <si>
+    <t>WO-00003056</t>
+  </si>
+  <si>
+    <t>WO-00003057</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -622,8 +656,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -942,25 +974,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1047,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1085,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1107,7 +1139,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1127,7 +1159,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1161,7 +1193,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1181,23 +1213,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3"/>
@@ -1215,29 +1247,29 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>133</v>
+      <c r="C9" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1252,7 +1284,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>43</v>
@@ -1273,30 +1305,30 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1312,9 +1344,9 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -1329,7 +1361,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>43</v>
@@ -1350,9 +1382,9 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>32</v>
@@ -1361,19 +1393,19 @@
         <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1389,9 +1421,9 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>15</v>
@@ -1406,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>43</v>
@@ -1427,30 +1459,30 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1466,9 +1498,9 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>15</v>
@@ -1483,7 +1515,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>43</v>
@@ -1504,30 +1536,30 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1543,9 +1575,9 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>15</v>
@@ -1560,7 +1592,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>43</v>
@@ -1581,30 +1613,30 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1620,9 +1652,9 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>15</v>
@@ -1650,18 +1682,18 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1680,9 +1712,9 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
@@ -1700,12 +1732,12 @@
         <v>37</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>32</v>
@@ -1717,18 +1749,18 @@
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -1743,12 +1775,12 @@
         <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
@@ -1760,15 +1792,15 @@
         <v>34</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -1783,12 +1815,12 @@
         <v>31</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>32</v>
@@ -1800,15 +1832,15 @@
         <v>34</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -1823,12 +1855,12 @@
         <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
@@ -1840,15 +1872,15 @@
         <v>34</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
@@ -1876,18 +1908,18 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1907,9 +1939,9 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
     </row>
-    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>15</v>
@@ -1921,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1939,21 +1971,21 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1972,9 +2004,9 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -1986,29 +2018,29 @@
         <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -2021,24 +2053,24 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>15</v>
@@ -2047,15 +2079,15 @@
         <v>30</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>32</v>
@@ -2064,15 +2096,15 @@
         <v>34</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -2087,15 +2119,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
@@ -2107,102 +2139,108 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>15</v>
@@ -2217,15 +2255,15 @@
         <v>31</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="15" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>32</v>
@@ -2237,18 +2275,18 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>15</v>
@@ -2260,24 +2298,24 @@
         <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="15" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>32</v>
@@ -2289,24 +2327,24 @@
         <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>15</v>
@@ -2315,10 +2353,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -2336,9 +2374,9 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="15" customHeight="1">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -2347,10 +2385,10 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2368,9 +2406,9 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>15</v>
@@ -2379,13 +2417,13 @@
         <v>30</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -2402,9 +2440,9 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="15" customHeight="1">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -2413,13 +2451,13 @@
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2437,20 +2475,26 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="15" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -499,6 +499,24 @@
   </si>
   <si>
     <t>WO-00003057</t>
+  </si>
+  <si>
+    <t>WO-00003059</t>
+  </si>
+  <si>
+    <t>P10538410201815407</t>
+  </si>
+  <si>
+    <t>IB10538410201815408</t>
+  </si>
+  <si>
+    <t>WO-00003063</t>
+  </si>
+  <si>
+    <t>P10538410201816176</t>
+  </si>
+  <si>
+    <t>IB10538410201816177</t>
   </si>
 </sst>
 </file>
@@ -2170,16 +2188,16 @@
         <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
         <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="167">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>IB10538410201816177</t>
+  </si>
+  <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
   </si>
 </sst>
 </file>
@@ -2225,16 +2237,16 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="F45" t="s">
         <v>120</v>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="169">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>AutoScon5102018103339</t>
+  </si>
+  <si>
+    <t>WO-00003099</t>
+  </si>
+  <si>
+    <t>WO-00003100</t>
   </si>
 </sst>
 </file>
@@ -2521,10 +2527,10 @@
         <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>WO-00003100</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
   </si>
 </sst>
 </file>
@@ -2527,10 +2533,10 @@
         <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10A198CB-A686-D14F-B3D9-4399C3D27E58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D7C60-30D2-2248-9F4A-73F3CB575D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="149">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
   </si>
   <si>
-    <t>ManualSCN_Checklist_4_RS10580_Checklist_Sections</t>
-  </si>
-  <si>
     <t>RS-10557_mapping</t>
   </si>
   <si>
@@ -354,18 +351,9 @@
     <t>Installed Product Name</t>
   </si>
   <si>
-    <t>WO-00002616</t>
-  </si>
-  <si>
-    <t>P105382592018152038</t>
-  </si>
-  <si>
     <t>AutoA10538_Auto</t>
   </si>
   <si>
-    <t>IB105382592018152039</t>
-  </si>
-  <si>
     <t>SCN_GetPriceSCON_RS_10539</t>
   </si>
   <si>
@@ -378,18 +366,6 @@
     <t>ServiceContract Name</t>
   </si>
   <si>
-    <t>WO-00002602</t>
-  </si>
-  <si>
-    <t>P1053925920181250191</t>
-  </si>
-  <si>
-    <t>P1053925920181250192</t>
-  </si>
-  <si>
-    <t>AutoScon259201810214</t>
-  </si>
-  <si>
     <t>AutoA10539_Auto</t>
   </si>
   <si>
@@ -471,45 +447,6 @@
     <t>Work Order Number2</t>
   </si>
   <si>
-    <t>WO-00003028</t>
-  </si>
-  <si>
-    <t>WO-00003034</t>
-  </si>
-  <si>
-    <t>WO-00003036</t>
-  </si>
-  <si>
-    <t>WO-00003041</t>
-  </si>
-  <si>
-    <t>WO-00003044</t>
-  </si>
-  <si>
-    <t>WO-00003046</t>
-  </si>
-  <si>
-    <t>WO-00003051</t>
-  </si>
-  <si>
-    <t>WO-00003053</t>
-  </si>
-  <si>
-    <t>WO-00003056</t>
-  </si>
-  <si>
-    <t>WO-00003057</t>
-  </si>
-  <si>
-    <t>WO-00003059</t>
-  </si>
-  <si>
-    <t>P10538410201815407</t>
-  </si>
-  <si>
-    <t>IB10538410201815408</t>
-  </si>
-  <si>
     <t>WO-00003063</t>
   </si>
   <si>
@@ -531,24 +468,20 @@
     <t>AutoScon5102018103339</t>
   </si>
   <si>
-    <t>WO-00003099</t>
-  </si>
-  <si>
-    <t>WO-00003100</t>
-  </si>
-  <si>
     <t>WO-00003104</t>
   </si>
   <si>
     <t>WO-00003105</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,25 +949,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1021,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1059,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1181,7 +1113,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1133,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1235,7 +1167,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1289,7 +1221,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -1309,7 +1241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1347,7 +1279,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1386,7 +1318,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>55</v>
       </c>
@@ -1424,7 +1356,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
@@ -1463,7 +1395,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
@@ -1501,7 +1433,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1540,7 +1472,7 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -1578,7 +1510,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>63</v>
       </c>
@@ -1617,7 +1549,7 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>64</v>
       </c>
@@ -1655,7 +1587,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
@@ -1694,7 +1626,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
@@ -1724,7 +1656,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1754,7 +1686,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -1777,7 +1709,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
@@ -1800,7 +1732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>74</v>
       </c>
@@ -1820,7 +1752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>75</v>
       </c>
@@ -1840,7 +1772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -1860,7 +1792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -1880,7 +1812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
@@ -1900,7 +1832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>81</v>
       </c>
@@ -1914,15 +1846,15 @@
         <v>34</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
@@ -1950,9 +1882,9 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>32</v>
@@ -1961,7 +1893,7 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1981,9 +1913,9 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
     </row>
-    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>15</v>
@@ -1995,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -2013,21 +1945,21 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2046,9 +1978,9 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -2063,15 +1995,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>34</v>
@@ -2080,9 +2012,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -2095,24 +2027,24 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>15</v>
@@ -2121,15 +2053,15 @@
         <v>30</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>32</v>
@@ -2138,15 +2070,15 @@
         <v>34</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -2167,9 +2099,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
@@ -2181,108 +2113,108 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="16" t="s">
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
-      <c r="A43" t="s">
+      <c r="E43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="E44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="16" t="s">
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="B46" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="16" t="s">
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>15</v>
@@ -2303,9 +2235,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>32</v>
@@ -2317,18 +2249,18 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>15</v>
@@ -2340,13 +2272,13 @@
         <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>70</v>
@@ -2355,9 +2287,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>32</v>
@@ -2369,24 +2301,24 @@
         <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>15</v>
@@ -2395,10 +2327,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -2416,9 +2348,9 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -2427,10 +2359,10 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2448,9 +2380,9 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>15</v>
@@ -2459,13 +2391,13 @@
         <v>30</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -2482,9 +2414,9 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -2493,13 +2425,13 @@
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2517,26 +2449,26 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1">
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1">
-      <c r="A57" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" t="s">
-        <v>169</v>
-      </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21006"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D7C60-30D2-2248-9F4A-73F3CB575D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D7C60-30D2-2248-9F4A-73F3CB575D9B}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="150">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -276,6 +281,9 @@
     <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
   </si>
   <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
     <t>RS-10557_mapping</t>
   </si>
   <si>
@@ -351,9 +359,18 @@
     <t>Installed Product Name</t>
   </si>
   <si>
+    <t>WO-00003191</t>
+  </si>
+  <si>
+    <t>P105389102018102820</t>
+  </si>
+  <si>
     <t>AutoA10538_Auto</t>
   </si>
   <si>
+    <t>IB105389102018102821</t>
+  </si>
+  <si>
     <t>SCN_GetPriceSCON_RS_10539</t>
   </si>
   <si>
@@ -366,6 +383,18 @@
     <t>ServiceContract Name</t>
   </si>
   <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
+  </si>
+  <si>
     <t>AutoA10539_Auto</t>
   </si>
   <si>
@@ -447,41 +476,20 @@
     <t>Work Order Number2</t>
   </si>
   <si>
-    <t>WO-00003063</t>
-  </si>
-  <si>
-    <t>P10538410201816176</t>
-  </si>
-  <si>
-    <t>IB10538410201816177</t>
-  </si>
-  <si>
-    <t>WO-00003089</t>
-  </si>
-  <si>
-    <t>P1053951020181028521</t>
-  </si>
-  <si>
-    <t>P1053951020181028522</t>
-  </si>
-  <si>
-    <t>AutoScon5102018103339</t>
-  </si>
-  <si>
     <t>WO-00003104</t>
   </si>
   <si>
     <t>WO-00003105</t>
   </si>
   <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+    <t>SCN_GetPrice_RS_10537</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,26 +955,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1029,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1067,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1121,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1133,7 +1141,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1175,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1221,7 +1229,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1279,7 +1287,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1318,7 +1326,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1364,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
@@ -1395,7 +1403,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
@@ -1433,7 +1441,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1472,7 +1480,7 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -1510,7 +1518,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>63</v>
       </c>
@@ -1549,7 +1557,7 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>64</v>
       </c>
@@ -1587,7 +1595,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
@@ -1626,7 +1634,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
@@ -1656,7 +1664,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1694,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -1709,7 +1717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
@@ -1732,7 +1740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>74</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>75</v>
       </c>
@@ -1772,7 +1780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -1792,7 +1800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>81</v>
       </c>
@@ -1846,15 +1854,15 @@
         <v>34</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
@@ -1882,9 +1890,9 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>32</v>
@@ -1893,7 +1901,7 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1913,9 +1921,9 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
     </row>
-    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>15</v>
@@ -1927,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1945,21 +1953,21 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1978,9 +1986,9 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -1995,15 +2003,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>34</v>
@@ -2012,9 +2020,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -2027,24 +2035,24 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>15</v>
@@ -2053,15 +2061,15 @@
         <v>30</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>32</v>
@@ -2070,15 +2078,15 @@
         <v>34</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -2099,9 +2107,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>32</v>
@@ -2113,108 +2121,108 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1">
+      <c r="A43" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="C44" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>15</v>
@@ -2235,9 +2243,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="15" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>32</v>
@@ -2249,18 +2257,18 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>15</v>
@@ -2272,13 +2280,13 @@
         <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>70</v>
@@ -2287,9 +2295,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="15" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>32</v>
@@ -2301,24 +2309,24 @@
         <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>15</v>
@@ -2327,10 +2335,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -2348,9 +2356,9 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="15" customHeight="1">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -2359,10 +2367,10 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2380,9 +2388,9 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>15</v>
@@ -2391,13 +2399,13 @@
         <v>30</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -2414,9 +2422,9 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="15" customHeight="1">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -2425,13 +2433,13 @@
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2449,26 +2457,40 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="15" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15" customHeight="1">
+      <c r="A58" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:21" ht="15" customHeight="1">
+      <c r="A59" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21006"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="152">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -483,12 +483,19 @@
   </si>
   <si>
     <t>SCN_GetPrice_RS_10537</t>
+  </si>
+  <si>
+    <t>WO-00003221</t>
+  </si>
+  <si>
+    <t>WO-00003223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -963,15 +970,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2492,6 +2499,9 @@
       <c r="A59" t="s">
         <v>149</v>
       </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="155">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>WO-00003223</t>
+  </si>
+  <si>
+    <t>WO-00003227</t>
+  </si>
+  <si>
+    <t>P1053810102018173441</t>
+  </si>
+  <si>
+    <t>IB1053810102018173442</t>
   </si>
 </sst>
 </file>
@@ -2159,16 +2168,16 @@
         <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
         <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -9,38 +9,41 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
     <sheet name="RS_10534" sheetId="30" r:id="rId2"/>
     <sheet name="RS_10525" sheetId="29" r:id="rId3"/>
     <sheet name="RS_10565" sheetId="28" r:id="rId4"/>
-    <sheet name="RS_10587" sheetId="27" r:id="rId5"/>
-    <sheet name="RS_10585" sheetId="26" r:id="rId6"/>
-    <sheet name="RS_10532" sheetId="25" r:id="rId7"/>
-    <sheet name="RS_10539" sheetId="24" r:id="rId8"/>
-    <sheet name="RS_10538" sheetId="23" r:id="rId9"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId10"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId11"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId12"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId13"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId14"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId15"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId16"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId17"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId18"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId19"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId20"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId21"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId22"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId23"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId24"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId25"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId26"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId27"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId28"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId29"/>
+    <sheet name="RS_10511" sheetId="31" r:id="rId5"/>
+    <sheet name="RS_10513" sheetId="32" r:id="rId6"/>
+    <sheet name="RS_11859" sheetId="33" r:id="rId7"/>
+    <sheet name="RS_10587" sheetId="27" r:id="rId8"/>
+    <sheet name="RS_10585" sheetId="26" r:id="rId9"/>
+    <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
+    <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
+    <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="172">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -513,6 +516,69 @@
   </si>
   <si>
     <t>WO-00003223</t>
+  </si>
+  <si>
+    <t>RS_10511_Calender_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_2</t>
+  </si>
+  <si>
+    <t>WO_SFDC_3</t>
+  </si>
+  <si>
+    <t>WO_SVMX_1</t>
+  </si>
+  <si>
+    <t>WO_SVMX_2</t>
+  </si>
+  <si>
+    <t>WO_SVMX_3</t>
+  </si>
+  <si>
+    <t>TechName1</t>
+  </si>
+  <si>
+    <t>TechName2</t>
+  </si>
+  <si>
+    <t>WO-00002974</t>
+  </si>
+  <si>
+    <t>WO-00002975</t>
+  </si>
+  <si>
+    <t>WO-00002976</t>
+  </si>
+  <si>
+    <t>WO-00002978</t>
+  </si>
+  <si>
+    <t>WO-00002979</t>
+  </si>
+  <si>
+    <t>WO-00002980</t>
+  </si>
+  <si>
+    <t>a240t000000L5IxAAK</t>
+  </si>
+  <si>
+    <t>RS_10513_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003181</t>
+  </si>
+  <si>
+    <t>WO-00003182</t>
+  </si>
+  <si>
+    <t>RS_11859_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003210</t>
   </si>
 </sst>
 </file>
@@ -657,7 +723,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -681,6 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1002,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1165,48 +1232,18 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>121</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1215,6 +1252,223 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1279,38 +1533,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1383,42 +1649,146 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1525,7 +1895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -1660,7 +2030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -1791,7 +2161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1904,7 +2274,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2017,7 +2479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2127,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2237,522 +2699,6 @@
       <c r="G3" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2826,7 +2772,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -2837,24 +2783,16 @@
       <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -2863,30 +2801,21 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>59</v>
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -2973,7 +2902,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -3011,16 +2940,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -3120,7 +3049,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -3148,7 +3077,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -3158,16 +3087,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -3201,6 +3130,447 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -3323,327 +3693,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3787,12 +3836,333 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3923,7 +4293,301 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3931,7 +4595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3986,265 +4650,68 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4318,42 +4785,60 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4366,13 +4851,10 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4431,36 +4913,48 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>107</v>
+        <v>123</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
+      <c r="A3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,6 @@
     <t>SCN_GetPrice_RS_10537</t>
   </si>
   <si>
-    <t>WO-00003223</t>
-  </si>
-  <si>
     <t>RS_10511_Calender_1</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>WO-00003210</t>
+  </si>
+  <si>
+    <t>WO-00003237</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1155,7 @@
         <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1365,13 +1365,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4358,7 +4359,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4367,28 +4368,28 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -4402,7 +4403,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4411,28 +4412,28 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>144</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -4517,7 +4518,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4526,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4549,7 +4550,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4558,10 +4559,10 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -4652,7 +4653,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4661,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4684,7 +4685,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4694,7 +4695,7 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{987D55D5-1D19-4042-A02A-50AC20A9E0C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="16260" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
     <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
     <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,17 +54,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="174">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -579,12 +575,18 @@
   </si>
   <si>
     <t>WO-00003237</t>
+  </si>
+  <si>
+    <t>RS_10541_Process</t>
+  </si>
+  <si>
+    <t>RS_10542_Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1066,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
@@ -1166,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1252,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1362,11 +1364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1586,7 +1588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1690,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1790,7 +1792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1897,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2032,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2163,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2276,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2368,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2481,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2591,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2707,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2837,14 +2839,19 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2950,7 +2957,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -2984,14 +2991,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3097,7 +3108,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -3131,11 +3142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3278,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3425,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3572,11 +3583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3699,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3838,7 +3849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3962,7 +3973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4147,7 +4158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
@@ -4159,7 +4170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4293,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4452,7 +4463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4587,7 +4598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4720,7 +4731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4848,7 +4859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -579,12 +579,22 @@
   </si>
   <si>
     <t>WO-00003237</t>
+  </si>
+  <si>
+    <t>WO-00003256</t>
+  </si>
+  <si>
+    <t>P1053812102018105539</t>
+  </si>
+  <si>
+    <t>IB1053812102018105541</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1075,15 +1085,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1371,8 +1381,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1452,16 +1462,16 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1809,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,7 +2182,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2377,7 +2387,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,7 +3591,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3971,7 +3981,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="180">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -588,6 +588,21 @@
   </si>
   <si>
     <t>IB1053812102018105541</t>
+  </si>
+  <si>
+    <t>WO-00003261</t>
+  </si>
+  <si>
+    <t>P10539121020181328351</t>
+  </si>
+  <si>
+    <t>P10539121020181328352</t>
+  </si>
+  <si>
+    <t>AutoScon12102018133355</t>
+  </si>
+  <si>
+    <t>Auto_1053912102018133339</t>
   </si>
 </sst>
 </file>
@@ -1351,19 +1366,19 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="182">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>Auto_1053912102018133339</t>
+  </si>
+  <si>
+    <t>WO-00003262</t>
+  </si>
+  <si>
+    <t>WO-00003264</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1186,7 @@
         <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21009"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" activeTab="11"/>
+    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -24,46 +25,47 @@
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
     <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
+    <sheet name="RS_10536" sheetId="34" r:id="rId13"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId14"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId15"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId16"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId17"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId18"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId19"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId20"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId21"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId22"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId23"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId24"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId25"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId26"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId27"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId28"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId29"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId30"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId31"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId32"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId33"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="173">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -107,18 +109,444 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>SCN_GetPrice_RS_10537</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t>WO-00003264</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t>WO-00002848</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10511_Calender_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_2</t>
+  </si>
+  <si>
+    <t>WO_SFDC_3</t>
+  </si>
+  <si>
+    <t>WO_SVMX_1</t>
+  </si>
+  <si>
+    <t>WO_SVMX_2</t>
+  </si>
+  <si>
+    <t>WO_SVMX_3</t>
+  </si>
+  <si>
+    <t>TechName1</t>
+  </si>
+  <si>
+    <t>TechName2</t>
+  </si>
+  <si>
+    <t>WO-00002974</t>
+  </si>
+  <si>
+    <t>WO-00002975</t>
+  </si>
+  <si>
+    <t>WO-00002976</t>
+  </si>
+  <si>
+    <t>WO-00002978</t>
+  </si>
+  <si>
+    <t>WO-00002979</t>
+  </si>
+  <si>
+    <t>WO-00002980</t>
+  </si>
+  <si>
+    <t>a240t000000L5IxAAK</t>
+  </si>
+  <si>
+    <t>RS_10513_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003181</t>
+  </si>
+  <si>
+    <t>WO-00003182</t>
+  </si>
+  <si>
+    <t>RS_11859_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003210</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>WO-00003261</t>
+  </si>
+  <si>
+    <t>P10539121020181328351</t>
+  </si>
+  <si>
+    <t>P10539121020181328352</t>
+  </si>
+  <si>
+    <t>AutoScon12102018133355</t>
+  </si>
+  <si>
+    <t>Auto_1053912102018133339</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>WO-00003256</t>
+  </si>
+  <si>
+    <t>P1053812102018105539</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>IB1053812102018105541</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10536</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>RS_10557_592018205141</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>RS_10554_7920189427</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
     <t>RS_2389</t>
   </si>
   <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
     <t>ProductName2</t>
   </si>
   <si>
@@ -155,468 +583,14 @@
     <t>RS_2389_checklist</t>
   </si>
   <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
     <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
-  </si>
-  <si>
-    <t>WO-00003191</t>
-  </si>
-  <si>
-    <t>P105389102018102820</t>
-  </si>
-  <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
-    <t>IB105389102018102821</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>WO-00003089</t>
-  </si>
-  <si>
-    <t>P1053951020181028521</t>
-  </si>
-  <si>
-    <t>P1053951020181028522</t>
-  </si>
-  <si>
-    <t>AutoScon5102018103339</t>
-  </si>
-  <si>
-    <t>AutoA10539_Auto</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>WO-00002848</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10537</t>
-  </si>
-  <si>
-    <t>RS_10511_Calender_1</t>
-  </si>
-  <si>
-    <t>WO_SFDC_1</t>
-  </si>
-  <si>
-    <t>WO_SFDC_2</t>
-  </si>
-  <si>
-    <t>WO_SFDC_3</t>
-  </si>
-  <si>
-    <t>WO_SVMX_1</t>
-  </si>
-  <si>
-    <t>WO_SVMX_2</t>
-  </si>
-  <si>
-    <t>WO_SVMX_3</t>
-  </si>
-  <si>
-    <t>TechName1</t>
-  </si>
-  <si>
-    <t>TechName2</t>
-  </si>
-  <si>
-    <t>WO-00002974</t>
-  </si>
-  <si>
-    <t>WO-00002975</t>
-  </si>
-  <si>
-    <t>WO-00002976</t>
-  </si>
-  <si>
-    <t>WO-00002978</t>
-  </si>
-  <si>
-    <t>WO-00002979</t>
-  </si>
-  <si>
-    <t>WO-00002980</t>
-  </si>
-  <si>
-    <t>a240t000000L5IxAAK</t>
-  </si>
-  <si>
-    <t>RS_10513_Calender_3</t>
-  </si>
-  <si>
-    <t>WO-00003181</t>
-  </si>
-  <si>
-    <t>WO-00003182</t>
-  </si>
-  <si>
-    <t>RS_11859_Calender_3</t>
-  </si>
-  <si>
-    <t>WO-00003210</t>
-  </si>
-  <si>
-    <t>WO-00003237</t>
-  </si>
-  <si>
-    <t>WO-00003256</t>
-  </si>
-  <si>
-    <t>P1053812102018105539</t>
-  </si>
-  <si>
-    <t>IB1053812102018105541</t>
-  </si>
-  <si>
-    <t>WO-00003261</t>
-  </si>
-  <si>
-    <t>P10539121020181328351</t>
-  </si>
-  <si>
-    <t>P10539121020181328352</t>
-  </si>
-  <si>
-    <t>AutoScon12102018133355</t>
-  </si>
-  <si>
-    <t>Auto_1053912102018133339</t>
-  </si>
-  <si>
-    <t>WO-00003262</t>
-  </si>
-  <si>
-    <t>WO-00003264</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,7 +728,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -778,13 +752,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1097,27 +1070,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.1640625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,21 +1145,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1197,16 +1170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,20 +1234,20 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1283,16 +1256,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,44 +1320,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1393,20 +1366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,38 +1434,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1501,16 +1474,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,89 +1501,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1617,16 +1524,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,38 +1588,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1721,16 +1640,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,35 +1704,39 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1821,19 +1744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.1640625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,39 +1808,35 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,16 +1844,123 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,21 +2015,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2024,21 +2047,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2062,17 +2085,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,18 +2150,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2157,18 +2180,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2193,130 +2216,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,26 +2281,26 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2399,19 +2309,19 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2466,44 +2376,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2512,16 +2422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2576,44 +2489,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2622,16 +2535,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,50 +2599,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2738,16 +2645,132 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2802,18 +2825,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2832,18 +2855,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2867,17 +2890,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2932,30 +2955,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2970,30 +2993,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3014,17 +3037,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,30 +3102,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3117,30 +3140,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3161,17 +3184,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3226,30 +3249,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3264,30 +3287,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3308,17 +3331,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3373,30 +3396,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3411,30 +3434,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3455,17 +3478,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3520,30 +3543,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3558,30 +3581,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3602,144 +3625,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3794,24 +3690,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3828,24 +3724,24 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3869,16 +3765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,24 +3832,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3967,24 +3866,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3993,19 +3892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4060,31 +3956,27 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4098,44 +3990,175 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4152,21 +4175,21 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4177,29 +4200,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4254,21 +4277,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4286,21 +4309,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4324,16 +4347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4388,39 +4411,39 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -4432,39 +4455,39 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>159</v>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>165</v>
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -4483,16 +4506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4547,21 +4570,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4579,28 +4602,22 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>167</v>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+        <v>53</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4618,16 +4635,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4682,21 +4699,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4714,26 +4731,19 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19"/>
+        <v>28</v>
+      </c>
       <c r="E3" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+        <v>55</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4751,16 +4761,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4815,62 +4825,62 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4879,16 +4889,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4943,50 +4953,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Installed Product</t>
   </si>
   <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
     <t>SCN_Checklist_1_RS-10577_SOU</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>RS-10557_mapping</t>
   </si>
   <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
     <t>RS-10556_mapping</t>
   </si>
   <si>
@@ -389,18 +383,9 @@
     <t>Installed Product Name</t>
   </si>
   <si>
-    <t>WO-00003191</t>
-  </si>
-  <si>
-    <t>P105389102018102820</t>
-  </si>
-  <si>
     <t>AutoA10538_Auto</t>
   </si>
   <si>
-    <t>IB105389102018102821</t>
-  </si>
-  <si>
     <t>SCN_GetPriceSCON_RS_10539</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t>TechName</t>
   </si>
   <si>
-    <t>WO-00002848</t>
-  </si>
-  <si>
     <t>a240t000000GglLAAS</t>
   </si>
   <si>
@@ -542,42 +524,15 @@
     <t>TechName2</t>
   </si>
   <si>
-    <t>WO-00002974</t>
-  </si>
-  <si>
-    <t>WO-00002975</t>
-  </si>
-  <si>
-    <t>WO-00002976</t>
-  </si>
-  <si>
-    <t>WO-00002978</t>
-  </si>
-  <si>
-    <t>WO-00002979</t>
-  </si>
-  <si>
-    <t>WO-00002980</t>
-  </si>
-  <si>
     <t>a240t000000L5IxAAK</t>
   </si>
   <si>
     <t>RS_10513_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003181</t>
-  </si>
-  <si>
-    <t>WO-00003182</t>
-  </si>
-  <si>
     <t>RS_11859_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003210</t>
-  </si>
-  <si>
     <t>WO-00003237</t>
   </si>
   <si>
@@ -588,13 +543,57 @@
   </si>
   <si>
     <t>IB1053812102018105541</t>
+  </si>
+  <si>
+    <t>WO-00003268</t>
+  </si>
+  <si>
+    <t>WO-00003271</t>
+  </si>
+  <si>
+    <t>WO-00003272</t>
+  </si>
+  <si>
+    <t>WO-00003267</t>
+  </si>
+  <si>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
+  </si>
+  <si>
+    <t>Salesforceuser</t>
+  </si>
+  <si>
+    <t>0050t000001PqX7AAK</t>
+  </si>
+  <si>
+    <t>WO-00003294</t>
+  </si>
+  <si>
+    <t>WO-00003295</t>
+  </si>
+  <si>
+    <t>WO-00003296</t>
+  </si>
+  <si>
+    <t>WO-00003297</t>
+  </si>
+  <si>
+    <t>WO-00003298</t>
+  </si>
+  <si>
+    <t>WO-00003299</t>
+  </si>
+  <si>
+    <t>WO-00003300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,15 +1084,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.1640625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,19 +1152,19 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1242,18 +1241,18 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1328,42 +1327,42 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1375,14 +1374,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,36 +1441,36 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1545,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1561,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>37</v>
@@ -1569,7 +1568,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -1581,13 +1580,13 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1661,7 @@
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -1671,15 +1670,15 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -1688,10 +1687,10 @@
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1765,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1781,13 +1780,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
@@ -1809,7 +1808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.1640625" collapsed="true"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,7 +1868,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1881,24 +1880,24 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +1972,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -1985,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2005,19 +2004,19 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2046,10 +2045,14 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2108,7 +2111,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -2138,7 +2141,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -2147,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2182,7 +2185,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2242,7 +2245,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -2257,12 +2260,12 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -2274,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2352,24 +2355,24 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2390,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,7 +2450,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -2462,12 +2465,12 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -2479,10 +2482,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -2572,12 +2575,12 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -2589,10 +2592,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -2685,12 +2688,12 @@
         <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -2702,13 +2705,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2721,10 +2724,13 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2822,7 +2828,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -3591,7 +3597,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3712,11 +3718,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3775,7 +3786,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -3784,13 +3795,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3809,7 +3820,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -3818,13 +3829,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3981,7 +3992,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,7 +4246,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4244,10 +4255,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4267,7 +4278,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -4276,10 +4287,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4307,10 +4318,18 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4369,7 +4388,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4378,30 +4397,32 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
@@ -4413,7 +4434,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4422,30 +4443,32 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4466,10 +4489,14 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4528,7 +4555,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4537,10 +4564,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4560,7 +4587,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4569,10 +4596,10 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -4601,10 +4628,14 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4663,7 +4694,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -4672,10 +4703,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4695,7 +4726,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4703,9 +4734,11 @@
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17" t="s">
-        <v>170</v>
+      <c r="D3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -4796,7 +4829,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -4808,16 +4841,16 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>37</v>
@@ -4825,7 +4858,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -4837,19 +4870,19 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4924,7 +4957,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -4939,7 +4972,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>37</v>
@@ -4947,7 +4980,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -4959,13 +4992,13 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21009"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="174">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -584,12 +584,16 @@
   </si>
   <si>
     <t>SFM_Auto_2372018162541</t>
+  </si>
+  <si>
+    <t>WO-00003324</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1079,15 +1083,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1375,8 +1379,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1481,8 +1485,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1516,6 +1520,9 @@
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1860,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2318,7 +2325,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2431,7 +2438,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -3774,7 +3781,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4025,7 +4032,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21009"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -25,47 +24,46 @@
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
     <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
-    <sheet name="RS_10536" sheetId="34" r:id="rId13"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId14"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId15"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId16"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId17"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId18"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId19"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId20"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId21"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId22"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId23"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId24"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId25"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId26"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId27"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId28"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId29"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId30"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId31"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId32"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId33"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -109,69 +107,396 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>RS_2389</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>ProductName2</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Case_RS_2389</t>
+  </si>
+  <si>
+    <t>Work Order Search 2</t>
+  </si>
+  <si>
+    <t>Record T&amp;M</t>
+  </si>
+  <si>
+    <t>BlueLake Men Watch</t>
+  </si>
+  <si>
+    <t>GE Product</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>RS_2389_checklist</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>SFM_Auto_2372018162541</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
+  </si>
+  <si>
+    <t>AutoA10539_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
     <t>SCN_GetPrice_RS_10537</t>
   </si>
   <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t>WO-00003264</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t>WO-00002848</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
     <t>RS_10511_Calender_1</t>
   </si>
   <si>
@@ -199,142 +524,16 @@
     <t>TechName2</t>
   </si>
   <si>
-    <t>WO-00002974</t>
-  </si>
-  <si>
-    <t>WO-00002975</t>
-  </si>
-  <si>
-    <t>WO-00002976</t>
-  </si>
-  <si>
-    <t>WO-00002978</t>
-  </si>
-  <si>
-    <t>WO-00002979</t>
-  </si>
-  <si>
-    <t>WO-00002980</t>
-  </si>
-  <si>
     <t>a240t000000L5IxAAK</t>
   </si>
   <si>
     <t>RS_10513_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003181</t>
-  </si>
-  <si>
-    <t>WO-00003182</t>
-  </si>
-  <si>
     <t>RS_11859_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003210</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>WO-00003261</t>
-  </si>
-  <si>
-    <t>P10539121020181328351</t>
-  </si>
-  <si>
-    <t>P10539121020181328352</t>
-  </si>
-  <si>
-    <t>AutoScon12102018133355</t>
-  </si>
-  <si>
-    <t>Auto_1053912102018133339</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
+    <t>WO-00003237</t>
   </si>
   <si>
     <t>WO-00003256</t>
@@ -343,258 +542,59 @@
     <t>P1053812102018105539</t>
   </si>
   <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
     <t>IB1053812102018105541</t>
   </si>
   <si>
-    <t>SCN_GetPrice_RS_10536</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>RS_2389</t>
-  </si>
-  <si>
-    <t>ProductName2</t>
-  </si>
-  <si>
-    <t>ActivityType</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Case_RS_2389</t>
-  </si>
-  <si>
-    <t>Work Order Search 2</t>
-  </si>
-  <si>
-    <t>Record T&amp;M</t>
-  </si>
-  <si>
-    <t>BlueLake Men Watch</t>
-  </si>
-  <si>
-    <t>GE Product</t>
-  </si>
-  <si>
-    <t>Cleanup</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>RS_2389_checklist</t>
-  </si>
-  <si>
-    <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>WO-00003324</t>
+    <t>WO-00003268</t>
+  </si>
+  <si>
+    <t>WO-00003271</t>
+  </si>
+  <si>
+    <t>WO-00003272</t>
+  </si>
+  <si>
+    <t>WO-00003267</t>
+  </si>
+  <si>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
+  </si>
+  <si>
+    <t>Salesforceuser</t>
+  </si>
+  <si>
+    <t>0050t000001PqX7AAK</t>
+  </si>
+  <si>
+    <t>WO-00003294</t>
+  </si>
+  <si>
+    <t>WO-00003295</t>
+  </si>
+  <si>
+    <t>WO-00003296</t>
+  </si>
+  <si>
+    <t>WO-00003297</t>
+  </si>
+  <si>
+    <t>WO-00003298</t>
+  </si>
+  <si>
+    <t>WO-00003299</t>
+  </si>
+  <si>
+    <t>WO-00003327</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -756,12 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1074,27 +1075,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,21 +1150,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1174,16 +1175,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,20 +1239,20 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1260,16 +1261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,44 +1325,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1370,20 +1371,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
-      <selection sqref="A1:E1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,38 +1439,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1478,18 +1479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="false"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,24 +1504,89 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>173</v>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1531,16 +1595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,50 +1659,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
+      <c r="E3" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1647,16 +1699,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,39 +1763,35 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1751,16 +1799,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,35 +1866,39 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,123 +1906,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,21 +1970,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2054,21 +2002,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2092,17 +2040,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,18 +2109,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2187,18 +2139,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2223,17 +2175,130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2288,26 +2353,26 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2316,19 +2381,19 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,44 +2448,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2429,19 +2494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,44 +2558,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2542,16 +2604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,44 +2668,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2652,16 +2720,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,134 +2787,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2862,18 +2817,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2897,17 +2852,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,30 +2917,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3000,30 +2955,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3044,17 +2999,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3109,30 +3064,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3147,30 +3102,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3191,17 +3146,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3256,30 +3211,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3294,30 +3249,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3338,17 +3293,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3403,30 +3358,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3441,30 +3396,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3485,17 +3440,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3550,30 +3505,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3588,30 +3543,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3632,17 +3587,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,10 +3742,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3697,25 +3786,23 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3731,24 +3818,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3772,19 +3856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3839,24 +3920,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3873,24 +3954,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>154</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3899,16 +3980,19 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3963,27 +4047,31 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3997,175 +4085,44 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4182,21 +4139,21 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4207,29 +4164,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4284,21 +4241,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4316,21 +4273,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4354,16 +4311,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4418,41 +4383,43 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
@@ -4462,41 +4429,43 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4513,16 +4482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4577,21 +4550,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4609,22 +4582,28 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4642,16 +4621,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4706,21 +4689,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4738,19 +4721,28 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>55</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4768,16 +4760,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4832,62 +4824,62 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4896,16 +4888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4960,50 +4952,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -545,18 +545,6 @@
     <t>IB1053812102018105541</t>
   </si>
   <si>
-    <t>WO-00003268</t>
-  </si>
-  <si>
-    <t>WO-00003271</t>
-  </si>
-  <si>
-    <t>WO-00003272</t>
-  </si>
-  <si>
-    <t>WO-00003267</t>
-  </si>
-  <si>
     <t>RS_10554_field_mapping</t>
   </si>
   <si>
@@ -569,25 +557,37 @@
     <t>0050t000001PqX7AAK</t>
   </si>
   <si>
-    <t>WO-00003294</t>
-  </si>
-  <si>
-    <t>WO-00003295</t>
-  </si>
-  <si>
-    <t>WO-00003296</t>
-  </si>
-  <si>
-    <t>WO-00003297</t>
-  </si>
-  <si>
-    <t>WO-00003298</t>
-  </si>
-  <si>
-    <t>WO-00003299</t>
-  </si>
-  <si>
-    <t>WO-00003327</t>
+    <t>WO-00003335</t>
+  </si>
+  <si>
+    <t>WO-00003336</t>
+  </si>
+  <si>
+    <t>WO-00003337</t>
+  </si>
+  <si>
+    <t>WO-00003338</t>
+  </si>
+  <si>
+    <t>WO-00003339</t>
+  </si>
+  <si>
+    <t>WO-00003340</t>
+  </si>
+  <si>
+    <t>WO-00003344</t>
+  </si>
+  <si>
+    <t>WO-00003346</t>
+  </si>
+  <si>
+    <t>WO-00003347</t>
+  </si>
+  <si>
+    <t>WO-00003348</t>
+  </si>
+  <si>
+    <t>WO-00003349</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2828,7 +2828,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -3718,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3829,7 +3829,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>138</v>
@@ -4418,7 +4418,7 @@
         <v>152</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -4440,22 +4440,22 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>173</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>138</v>
@@ -4464,7 +4464,7 @@
         <v>153</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4593,10 +4593,10 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -4624,14 +4624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4732,10 +4731,10 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>WO-00003324</t>
+  </si>
+  <si>
+    <t>WO-00003325</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1488,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1522,7 +1525,7 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21009"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -25,47 +24,46 @@
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
     <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
-    <sheet name="RS_10536" sheetId="34" r:id="rId13"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId14"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId15"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId16"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId17"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId18"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId19"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId20"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId21"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId22"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId23"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId24"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId25"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId26"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId27"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId28"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId29"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId30"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId31"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId32"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId33"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -109,69 +107,396 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>RS_2389</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>ProductName2</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Case_RS_2389</t>
+  </si>
+  <si>
+    <t>Work Order Search 2</t>
+  </si>
+  <si>
+    <t>Record T&amp;M</t>
+  </si>
+  <si>
+    <t>BlueLake Men Watch</t>
+  </si>
+  <si>
+    <t>GE Product</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>RS_2389_checklist</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>SFM_Auto_2372018162541</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
+  </si>
+  <si>
+    <t>AutoA10539_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
     <t>SCN_GetPrice_RS_10537</t>
   </si>
   <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t>WO-00003264</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t>WO-00002848</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
     <t>RS_10511_Calender_1</t>
   </si>
   <si>
@@ -199,142 +524,16 @@
     <t>TechName2</t>
   </si>
   <si>
-    <t>WO-00002974</t>
-  </si>
-  <si>
-    <t>WO-00002975</t>
-  </si>
-  <si>
-    <t>WO-00002976</t>
-  </si>
-  <si>
-    <t>WO-00002978</t>
-  </si>
-  <si>
-    <t>WO-00002979</t>
-  </si>
-  <si>
-    <t>WO-00002980</t>
-  </si>
-  <si>
     <t>a240t000000L5IxAAK</t>
   </si>
   <si>
     <t>RS_10513_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003181</t>
-  </si>
-  <si>
-    <t>WO-00003182</t>
-  </si>
-  <si>
     <t>RS_11859_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003210</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>WO-00003261</t>
-  </si>
-  <si>
-    <t>P10539121020181328351</t>
-  </si>
-  <si>
-    <t>P10539121020181328352</t>
-  </si>
-  <si>
-    <t>AutoScon12102018133355</t>
-  </si>
-  <si>
-    <t>Auto_1053912102018133339</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
+    <t>WO-00003237</t>
   </si>
   <si>
     <t>WO-00003256</t>
@@ -343,261 +542,59 @@
     <t>P1053812102018105539</t>
   </si>
   <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
     <t>IB1053812102018105541</t>
   </si>
   <si>
-    <t>SCN_GetPrice_RS_10536</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>RS_2389</t>
-  </si>
-  <si>
-    <t>ProductName2</t>
-  </si>
-  <si>
-    <t>ActivityType</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Case_RS_2389</t>
-  </si>
-  <si>
-    <t>Work Order Search 2</t>
-  </si>
-  <si>
-    <t>Record T&amp;M</t>
-  </si>
-  <si>
-    <t>BlueLake Men Watch</t>
-  </si>
-  <si>
-    <t>GE Product</t>
-  </si>
-  <si>
-    <t>Cleanup</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>RS_2389_checklist</t>
-  </si>
-  <si>
-    <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>WO-00003324</t>
-  </si>
-  <si>
-    <t>WO-00003325</t>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
+  </si>
+  <si>
+    <t>Salesforceuser</t>
+  </si>
+  <si>
+    <t>0050t000001PqX7AAK</t>
+  </si>
+  <si>
+    <t>WO-00003335</t>
+  </si>
+  <si>
+    <t>WO-00003336</t>
+  </si>
+  <si>
+    <t>WO-00003337</t>
+  </si>
+  <si>
+    <t>WO-00003338</t>
+  </si>
+  <si>
+    <t>WO-00003339</t>
+  </si>
+  <si>
+    <t>WO-00003340</t>
+  </si>
+  <si>
+    <t>WO-00003346</t>
+  </si>
+  <si>
+    <t>WO-00003347</t>
+  </si>
+  <si>
+    <t>WO-00003348</t>
+  </si>
+  <si>
+    <t>WO-00003349</t>
+  </si>
+  <si>
+    <t>WO-00003361</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,7 +732,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -759,12 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1077,27 +1075,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,21 +1150,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1177,16 +1175,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,20 +1239,20 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1263,16 +1261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,44 +1325,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1373,20 +1371,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
-      <selection sqref="A1:E1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,38 +1439,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1481,18 +1479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,24 +1504,89 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1534,16 +1595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,50 +1663,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
+      <c r="E3" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1650,16 +1703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,39 +1767,35 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1754,16 +1803,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,35 +1870,39 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,123 +1910,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,21 +1974,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2057,21 +2006,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2095,17 +2044,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2160,18 +2113,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2190,18 +2143,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2226,17 +2179,130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2291,26 +2357,26 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2319,19 +2385,19 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2386,44 +2452,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2432,19 +2498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2499,44 +2562,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2545,16 +2608,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2609,44 +2672,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2655,16 +2724,21 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2719,134 +2793,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2865,18 +2823,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2900,17 +2858,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2965,30 +2923,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3003,30 +2961,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3047,17 +3005,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3112,30 +3070,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3150,30 +3108,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3194,17 +3152,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3259,30 +3217,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3297,30 +3255,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3341,17 +3299,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3406,30 +3364,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3444,30 +3402,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3488,17 +3446,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,30 +3511,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3591,30 +3549,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3635,17 +3593,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3656,10 +3747,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3700,25 +3791,23 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3734,24 +3823,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3775,19 +3861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3842,24 +3925,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3876,24 +3959,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>154</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3902,16 +3985,19 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3966,27 +4052,31 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4000,175 +4090,44 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4185,21 +4144,21 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4210,29 +4169,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4287,21 +4253,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4319,21 +4285,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4357,16 +4323,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4421,41 +4395,43 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
@@ -4465,41 +4441,43 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4516,16 +4494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4580,21 +4562,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4612,22 +4594,28 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4645,16 +4633,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4709,21 +4700,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4741,19 +4732,28 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>55</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4771,16 +4771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,62 +4835,62 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4899,16 +4899,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4963,50 +4963,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="176">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>WO-00003325</t>
+  </si>
+  <si>
+    <t>WO-00003370</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2727,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08E0A1B9-C271-C447-B625-CEB135423D67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16260" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
     <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
     <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,17 +54,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -588,12 +584,18 @@
   </si>
   <si>
     <t>WO-00003361</t>
+  </si>
+  <si>
+    <t>RS_10541_Process</t>
+  </si>
+  <si>
+    <t>RS_10542_Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1075,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
@@ -1175,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1261,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1371,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1479,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1595,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1703,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1803,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -1910,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2045,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2180,7 +2182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2293,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2385,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2498,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2608,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -2724,10 +2726,10 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2859,14 +2861,19 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2972,7 +2979,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -3006,14 +3013,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3119,7 +3130,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -3153,10 +3164,10 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3300,7 +3311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3447,7 +3458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3594,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3721,7 +3732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3861,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -3985,7 +3996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4170,7 +4181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
@@ -4182,7 +4193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4323,7 +4334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4494,7 +4505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4633,7 +4644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4771,7 +4782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4899,7 +4910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08E0A1B9-C271-C447-B625-CEB135423D67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D87FE0A-FAB9-EA4E-82DD-BD0B4AC968AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16260" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16260" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2943,18 +2943,10 @@
       <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -2981,18 +2973,10 @@
       <c r="D3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3017,7 +3001,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3094,18 +3078,10 @@
       <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -3132,18 +3108,10 @@
       <c r="D3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3167,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3241,18 +3209,10 @@
       <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -3279,18 +3239,10 @@
       <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="12" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -313,6 +313,9 @@
     <t>Account Name</t>
   </si>
   <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
     <t>WO-00003261</t>
   </si>
   <si>
@@ -328,15 +331,15 @@
     <t>Auto_1053912102018133339</t>
   </si>
   <si>
+    <t>IB1053915102018144235</t>
+  </si>
+  <si>
     <t>SCN_GetPrice_RS_10538</t>
   </si>
   <si>
     <t xml:space="preserve">Product Name </t>
   </si>
   <si>
-    <t>Installed Product Name</t>
-  </si>
-  <si>
     <t>WO-00003256</t>
   </si>
   <si>
@@ -352,6 +355,9 @@
     <t>SCN_GetPrice_RS_10536</t>
   </si>
   <si>
+    <t>WO-00003370</t>
+  </si>
+  <si>
     <t>SCN_ChecklistOPDOC_2_RS-10586</t>
   </si>
   <si>
@@ -584,22 +590,12 @@
   </si>
   <si>
     <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>WO-00003324</t>
-  </si>
-  <si>
-    <t>WO-00003325</t>
-  </si>
-  <si>
-    <t>WO-00003370</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -764,10 +760,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1089,15 +1085,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1269,11 +1265,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1349,25 +1349,31 @@
       <c r="F2" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="G2" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1385,8 +1391,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1446,36 +1452,36 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +1493,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
+    <sheetView workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1514,7 +1520,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>15</v>
@@ -1525,10 +1531,10 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1609,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -1638,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -1728,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>61</v>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -1745,10 +1751,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1838,13 +1844,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
@@ -1866,7 +1872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1926,7 +1932,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1943,13 +1949,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
@@ -2030,7 +2036,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2165,7 +2171,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2195,16 +2201,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2331,7 +2337,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2391,7 +2397,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2411,7 +2417,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -2423,7 +2429,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>68</v>
@@ -2444,7 +2450,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2504,7 +2510,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -2536,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>68</v>
@@ -2614,7 +2620,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -2646,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>68</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2747,7 +2753,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -2759,10 +2765,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>68</v>
@@ -2840,7 +2846,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2870,16 +2876,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2982,16 +2988,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3008,28 +3014,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3117,7 +3123,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -3129,16 +3135,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3155,28 +3161,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3264,7 +3270,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -3276,16 +3282,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3302,28 +3308,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3411,7 +3417,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -3423,16 +3429,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3449,7 +3455,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -3458,19 +3464,19 @@
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -3570,16 +3576,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3596,28 +3602,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3787,7 +3793,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -3847,7 +3853,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -3859,10 +3865,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3881,22 +3887,22 @@
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +3977,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -4005,7 +4011,7 @@
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -4017,10 +4023,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +4044,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4098,7 +4104,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -4107,19 +4113,19 @@
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -4136,30 +4142,30 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>22</v>
@@ -4190,7 +4196,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>27</v>
@@ -4202,7 +4208,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="12" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,29 @@
     <sheet name="RS_10585" sheetId="26" r:id="rId9"/>
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
-    <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
-    <sheet name="RS_10536" sheetId="34" r:id="rId13"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId14"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId15"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId16"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId17"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId18"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId19"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId20"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId21"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId22"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId23"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId24"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId25"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId26"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId27"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId28"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId29"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId30"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId31"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId32"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId33"/>
+    <sheet name="RS_10531" sheetId="35" r:id="rId12"/>
+    <sheet name="RS_10538" sheetId="23" r:id="rId13"/>
+    <sheet name="RS_10536" sheetId="34" r:id="rId14"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId15"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId16"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId17"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId18"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId19"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId20"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId21"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId22"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId23"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId24"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId25"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId26"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId27"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId28"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId29"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId30"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId31"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId32"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId33"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId34"/>
   </sheets>
   <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -332,6 +333,12 @@
   </si>
   <si>
     <t>IB1053915102018144235</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10531</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
   <si>
     <t>SCN_GetPrice_RS_10538</t>
@@ -760,10 +767,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1265,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1382,6 +1389,102 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EC2A3-50A6-45AE-BF6E-1BAC3C249CC2}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0780542D-ACE0-5A32-BFF3-888DF21E033C}">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1452,13 +1555,13 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>81</v>
@@ -1469,19 +1572,19 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1520,7 +1623,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>15</v>
@@ -1531,10 +1634,10 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1609,7 +1712,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1632,7 +1735,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -1644,13 +1747,13 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1725,7 +1828,7 @@
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -1734,7 +1837,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>61</v>
@@ -1742,7 +1845,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -1751,10 +1854,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1829,7 +1932,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1844,13 +1947,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
@@ -1862,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1932,7 +2035,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1949,13 +2052,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
@@ -1969,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2036,7 +2139,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2068,151 +2171,20 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2328,462 +2300,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2846,7 +2366,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2876,17 +2396,18 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>131</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2909,11 +2430,463 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2987,24 +2960,16 @@
       <c r="D2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -3013,30 +2978,21 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>137</v>
+      <c r="A3" t="s">
+        <v>132</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3057,10 +3013,10 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3123,7 +3079,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -3135,16 +3091,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3161,28 +3117,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3204,10 +3160,10 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3282,16 +3238,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3314,22 +3270,22 @@
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3351,10 +3307,10 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3429,16 +3385,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3461,22 +3417,22 @@
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3498,10 +3454,10 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3564,7 +3520,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -3576,23 +3532,23 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -3602,28 +3558,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3784,6 +3740,153 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -3853,7 +3956,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -3865,10 +3968,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3887,22 +3990,22 @@
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -3977,7 +4080,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -4011,7 +4114,7 @@
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -4023,10 +4126,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -4104,7 +4207,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -4113,19 +4216,19 @@
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -4142,30 +4245,30 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>22</v>
@@ -4196,7 +4299,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>27</v>
@@ -4208,7 +4311,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4219,7 +4322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="179">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -597,12 +597,19 @@
   </si>
   <si>
     <t>SFM_Auto_2372018162541</t>
+  </si>
+  <si>
+    <t>WO-00003389</t>
+  </si>
+  <si>
+    <t>P1053117102018101621</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1092,15 +1099,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1278,8 +1285,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="51.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1398,10 +1405,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1477,6 +1484,12 @@
     <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1494,8 +1507,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1600,8 +1613,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1975,7 +1988,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2440,7 +2453,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2553,7 +2566,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -3896,7 +3909,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4147,7 +4160,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="22"/>
+    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -23,47 +24,49 @@
     <sheet name="RS_10585" sheetId="26" r:id="rId9"/>
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
-    <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
+    <sheet name="RS_10531" sheetId="35" r:id="rId12"/>
+    <sheet name="RS_10538" sheetId="23" r:id="rId13"/>
+    <sheet name="RS_10536" sheetId="34" r:id="rId14"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId15"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId16"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId17"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId18"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId19"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId20"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId21"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId22"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId23"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId24"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId25"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId26"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId27"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId28"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId29"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId30"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId31"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId32"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId33"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="179">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -107,18 +110,456 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>SCN_GetPrice_RS_10537</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t>WO-00003264</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t>WO-00002848</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10511_Calender_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_2</t>
+  </si>
+  <si>
+    <t>WO_SFDC_3</t>
+  </si>
+  <si>
+    <t>WO_SVMX_1</t>
+  </si>
+  <si>
+    <t>WO_SVMX_2</t>
+  </si>
+  <si>
+    <t>WO_SVMX_3</t>
+  </si>
+  <si>
+    <t>TechName1</t>
+  </si>
+  <si>
+    <t>TechName2</t>
+  </si>
+  <si>
+    <t>WO-00002974</t>
+  </si>
+  <si>
+    <t>WO-00002975</t>
+  </si>
+  <si>
+    <t>WO-00002976</t>
+  </si>
+  <si>
+    <t>WO-00002978</t>
+  </si>
+  <si>
+    <t>WO-00002979</t>
+  </si>
+  <si>
+    <t>WO-00002980</t>
+  </si>
+  <si>
+    <t>a240t000000L5IxAAK</t>
+  </si>
+  <si>
+    <t>RS_10513_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003181</t>
+  </si>
+  <si>
+    <t>WO-00003182</t>
+  </si>
+  <si>
+    <t>RS_11859_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003210</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>WO-00003261</t>
+  </si>
+  <si>
+    <t>P10539121020181328351</t>
+  </si>
+  <si>
+    <t>P10539121020181328352</t>
+  </si>
+  <si>
+    <t>AutoScon12102018133355</t>
+  </si>
+  <si>
+    <t>Auto_1053912102018133339</t>
+  </si>
+  <si>
+    <t>IB1053915102018144235</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10531</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>WO-00003256</t>
+  </si>
+  <si>
+    <t>P1053812102018105539</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>IB1053812102018105541</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10536</t>
+  </si>
+  <si>
+    <t>WO-00003370</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>RS_10557_592018205141</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>RS_10554_7920189427</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
     <t>RS_2389</t>
   </si>
   <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
     <t>ProductName2</t>
   </si>
   <si>
@@ -155,446 +596,21 @@
     <t>RS_2389_checklist</t>
   </si>
   <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
     <t>SFM_Auto_2372018162541</t>
   </si>
   <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
-  </si>
-  <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>WO-00003089</t>
-  </si>
-  <si>
-    <t>P1053951020181028521</t>
-  </si>
-  <si>
-    <t>P1053951020181028522</t>
-  </si>
-  <si>
-    <t>AutoScon5102018103339</t>
-  </si>
-  <si>
-    <t>AutoA10539_Auto</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10537</t>
-  </si>
-  <si>
-    <t>RS_10511_Calender_1</t>
-  </si>
-  <si>
-    <t>WO_SFDC_1</t>
-  </si>
-  <si>
-    <t>WO_SFDC_2</t>
-  </si>
-  <si>
-    <t>WO_SFDC_3</t>
-  </si>
-  <si>
-    <t>WO_SVMX_1</t>
-  </si>
-  <si>
-    <t>WO_SVMX_2</t>
-  </si>
-  <si>
-    <t>WO_SVMX_3</t>
-  </si>
-  <si>
-    <t>TechName1</t>
-  </si>
-  <si>
-    <t>TechName2</t>
-  </si>
-  <si>
-    <t>a240t000000L5IxAAK</t>
-  </si>
-  <si>
-    <t>RS_10513_Calender_3</t>
-  </si>
-  <si>
-    <t>RS_11859_Calender_3</t>
-  </si>
-  <si>
-    <t>WO-00003237</t>
-  </si>
-  <si>
-    <t>WO-00003256</t>
-  </si>
-  <si>
-    <t>P1053812102018105539</t>
-  </si>
-  <si>
-    <t>IB1053812102018105541</t>
-  </si>
-  <si>
-    <t>RS_10554_field_mapping</t>
-  </si>
-  <si>
-    <t>RS_10557_Child_Mapping</t>
-  </si>
-  <si>
-    <t>Salesforceuser</t>
-  </si>
-  <si>
-    <t>0050t000001PqX7AAK</t>
-  </si>
-  <si>
-    <t>WO-00003335</t>
-  </si>
-  <si>
-    <t>WO-00003336</t>
-  </si>
-  <si>
-    <t>WO-00003337</t>
-  </si>
-  <si>
-    <t>WO-00003338</t>
-  </si>
-  <si>
-    <t>WO-00003339</t>
-  </si>
-  <si>
-    <t>WO-00003340</t>
-  </si>
-  <si>
-    <t>WO-00003346</t>
-  </si>
-  <si>
-    <t>WO-00003347</t>
-  </si>
-  <si>
-    <t>WO-00003348</t>
-  </si>
-  <si>
-    <t>WO-00003349</t>
-  </si>
-  <si>
-    <t>WO-00003361</t>
+    <t>WO-00003389</t>
+  </si>
+  <si>
+    <t>P1053117102018101621</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,7 +748,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -756,13 +772,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1075,27 +1090,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,21 +1165,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1175,16 +1190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,20 +1254,20 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1261,16 +1276,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="51.7109375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,44 +1344,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1371,20 +1396,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EC2A3-50A6-45AE-BF6E-1BAC3C249CC2}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0780542D-ACE0-5A32-BFF3-888DF21E033C}">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,38 +1466,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1479,16 +1498,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,50 +1566,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
+      <c r="C2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1595,20 +1606,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,77 +1633,24 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>94</v>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1703,16 +1659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,35 +1723,51 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1803,19 +1775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,38 +1839,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1910,16 +1879,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,21 +1943,228 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2006,21 +2182,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2044,21 +2220,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,18 +2377,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2143,18 +2407,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2179,20 +2443,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2247,359 +2511,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2608,16 +2557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,50 +2624,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2724,21 +2670,242 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2793,18 +2960,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2823,18 +2990,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2858,17 +3025,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2923,30 +3090,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2961,30 +3128,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3005,17 +3172,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,30 +3237,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3108,30 +3275,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3152,17 +3319,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,30 +3384,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3255,30 +3422,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3299,17 +3466,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3364,30 +3531,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3402,30 +3569,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3446,17 +3613,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,31 +3678,27 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -3549,31 +3712,27 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3593,20 +3752,167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3661,24 +3967,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3695,24 +4001,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3720,23 +4026,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3747,10 +4368,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3791,21 +4412,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -3823,21 +4444,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3860,17 +4481,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3925,79 +4546,111 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,222 +4705,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4285,27 +4737,22 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+        <v>53</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4322,25 +4769,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4395,188 +4834,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4594,28 +4866,19 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+        <v>55</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4632,155 +4895,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,62 +4960,62 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
         <v>69</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4899,16 +5024,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4963,50 +5088,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="179">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -24,49 +23,47 @@
     <sheet name="RS_10585" sheetId="26" r:id="rId9"/>
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
-    <sheet name="RS_10531" sheetId="35" r:id="rId12"/>
-    <sheet name="RS_10538" sheetId="23" r:id="rId13"/>
-    <sheet name="RS_10536" sheetId="34" r:id="rId14"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId15"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId16"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId17"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId18"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId19"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId20"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId21"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId22"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId23"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId24"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId25"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId26"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId27"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId28"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId29"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId30"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId31"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId32"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId33"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId34"/>
+    <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -110,69 +107,396 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>RS_2389</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>ProductName2</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Case_RS_2389</t>
+  </si>
+  <si>
+    <t>Work Order Search 2</t>
+  </si>
+  <si>
+    <t>Record T&amp;M</t>
+  </si>
+  <si>
+    <t>BlueLake Men Watch</t>
+  </si>
+  <si>
+    <t>GE Product</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>RS_2389_checklist</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>SFM_Auto_2372018162541</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
+  </si>
+  <si>
+    <t>AutoA10539_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
     <t>SCN_GetPrice_RS_10537</t>
   </si>
   <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t>WO-00003264</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t>WO-00002848</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
     <t>RS_10511_Calender_1</t>
   </si>
   <si>
@@ -200,151 +524,16 @@
     <t>TechName2</t>
   </si>
   <si>
-    <t>WO-00002974</t>
-  </si>
-  <si>
-    <t>WO-00002975</t>
-  </si>
-  <si>
-    <t>WO-00002976</t>
-  </si>
-  <si>
-    <t>WO-00002978</t>
-  </si>
-  <si>
-    <t>WO-00002979</t>
-  </si>
-  <si>
-    <t>WO-00002980</t>
-  </si>
-  <si>
     <t>a240t000000L5IxAAK</t>
   </si>
   <si>
     <t>RS_10513_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003181</t>
-  </si>
-  <si>
-    <t>WO-00003182</t>
-  </si>
-  <si>
     <t>RS_11859_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003210</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
-  </si>
-  <si>
-    <t>WO-00003261</t>
-  </si>
-  <si>
-    <t>P10539121020181328351</t>
-  </si>
-  <si>
-    <t>P10539121020181328352</t>
-  </si>
-  <si>
-    <t>AutoScon12102018133355</t>
-  </si>
-  <si>
-    <t>Auto_1053912102018133339</t>
-  </si>
-  <si>
-    <t>IB1053915102018144235</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10531</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
+    <t>WO-00003237</t>
   </si>
   <si>
     <t>WO-00003256</t>
@@ -353,264 +542,59 @@
     <t>P1053812102018105539</t>
   </si>
   <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
     <t>IB1053812102018105541</t>
   </si>
   <si>
-    <t>SCN_GetPrice_RS_10536</t>
-  </si>
-  <si>
-    <t>WO-00003370</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>RS_2389</t>
-  </si>
-  <si>
-    <t>ProductName2</t>
-  </si>
-  <si>
-    <t>ActivityType</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Case_RS_2389</t>
-  </si>
-  <si>
-    <t>Work Order Search 2</t>
-  </si>
-  <si>
-    <t>Record T&amp;M</t>
-  </si>
-  <si>
-    <t>BlueLake Men Watch</t>
-  </si>
-  <si>
-    <t>GE Product</t>
-  </si>
-  <si>
-    <t>Cleanup</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>RS_2389_checklist</t>
-  </si>
-  <si>
-    <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>WO-00003389</t>
-  </si>
-  <si>
-    <t>P1053117102018101621</t>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
+  </si>
+  <si>
+    <t>Salesforceuser</t>
+  </si>
+  <si>
+    <t>0050t000001PqX7AAK</t>
+  </si>
+  <si>
+    <t>WO-00003335</t>
+  </si>
+  <si>
+    <t>WO-00003336</t>
+  </si>
+  <si>
+    <t>WO-00003337</t>
+  </si>
+  <si>
+    <t>WO-00003338</t>
+  </si>
+  <si>
+    <t>WO-00003339</t>
+  </si>
+  <si>
+    <t>WO-00003340</t>
+  </si>
+  <si>
+    <t>WO-00003346</t>
+  </si>
+  <si>
+    <t>WO-00003347</t>
+  </si>
+  <si>
+    <t>WO-00003348</t>
+  </si>
+  <si>
+    <t>WO-00003349</t>
+  </si>
+  <si>
+    <t>WO-00003361</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,7 +732,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -772,12 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1090,27 +1075,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,21 +1150,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1190,16 +1175,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,20 +1239,20 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1276,20 +1261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="51.7109375" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,50 +1325,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1396,22 +1371,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EC2A3-50A6-45AE-BF6E-1BAC3C249CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0780542D-ACE0-5A32-BFF3-888DF21E033C}">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,30 +1439,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1498,20 +1479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
-      <selection sqref="A1:E1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,38 +1543,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1606,18 +1595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,24 +1624,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1659,16 +1703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,51 +1767,35 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,16 +1803,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,38 +1870,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1879,16 +1910,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1943,228 +1974,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2182,21 +2006,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2220,17 +2044,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S3"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,110 +2113,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2407,18 +2143,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2443,20 +2179,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2511,44 +2247,359 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2557,19 +2608,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2624,44 +2672,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2670,16 +2724,21 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2734,244 +2793,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2990,18 +2823,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -3025,17 +2858,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3090,30 +2923,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3128,30 +2961,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3172,17 +3005,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3237,30 +3070,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3275,30 +3108,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3319,17 +3152,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3384,30 +3217,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3422,30 +3255,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3466,17 +3299,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3531,30 +3364,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3569,30 +3402,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3613,17 +3446,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3678,25 +3511,303 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3712,24 +3823,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3753,16 +3861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3817,174 +3925,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4001,24 +3959,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4026,17 +3984,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:T3"/>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4091,27 +4052,31 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4125,175 +4090,44 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4310,21 +4144,21 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4335,29 +4169,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4412,21 +4253,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4444,21 +4285,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4482,16 +4323,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,41 +4395,43 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
@@ -4590,41 +4441,43 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4641,16 +4494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4705,21 +4562,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4737,22 +4594,28 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4770,16 +4633,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4834,21 +4700,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4866,19 +4732,28 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>55</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4896,16 +4771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4960,62 +4835,62 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5024,16 +4899,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5088,50 +4963,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="183">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -603,6 +603,18 @@
   </si>
   <si>
     <t>P1053117102018101621</t>
+  </si>
+  <si>
+    <t>WO-00003396</t>
+  </si>
+  <si>
+    <t>P1053117102018142358</t>
+  </si>
+  <si>
+    <t>WO-00003397</t>
+  </si>
+  <si>
+    <t>P1053117102018143218</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1498,10 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A591CCD61FB231D02A34A3D4F37152F691A5BD46" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="920" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="16260" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -48,25 +47,25 @@
     <sheet name="RS_2389" sheetId="2" r:id="rId33"/>
     <sheet name="Sheet14" sheetId="15" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="181">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -599,30 +598,23 @@
     <t>SFM_Auto_2372018162541</t>
   </si>
   <si>
-    <t>WO-00003389</t>
-  </si>
-  <si>
-    <t>P1053117102018101621</t>
-  </si>
-  <si>
-    <t>WO-00003396</t>
-  </si>
-  <si>
-    <t>P1053117102018142358</t>
-  </si>
-  <si>
     <t>WO-00003397</t>
   </si>
   <si>
     <t>P1053117102018143218</t>
+  </si>
+  <si>
+    <t>Salesforceuser</t>
+  </si>
+  <si>
+    <t>0050t000001PqX7AAK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,7 +752,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -784,6 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1102,27 +1095,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1170,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1179,7 @@
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1202,16 +1195,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1259,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1274,7 +1267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1288,20 +1281,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1349,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -1379,7 +1372,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1408,22 +1401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EC2A3-50A6-45AE-BF6E-1BAC3C249CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0780542D-ACE0-5A32-BFF3-888DF21E033C}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1471,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -1493,15 +1486,15 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1510,20 +1503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1571,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -1595,7 +1588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1618,18 +1611,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94480E05-B7FA-4DD5-89EE-C6E7F7328DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{62312496-B7DB-5A1E-BE5B-04E292D686FF}"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="1" max="1" width="38.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
@@ -1657,7 +1650,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1671,16 +1664,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1728,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>99</v>
       </c>
@@ -1758,7 +1751,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>100</v>
       </c>
@@ -1787,16 +1780,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1844,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>103</v>
       </c>
@@ -1868,7 +1861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>103</v>
       </c>
@@ -1891,16 +1884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1948,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
@@ -1970,7 +1963,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
@@ -1991,19 +1984,19 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2051,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
@@ -2075,7 +2068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>110</v>
       </c>
@@ -2098,16 +2091,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2155,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
@@ -2194,7 +2187,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -2233,16 +2226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2290,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -2308,7 +2301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2325,16 +2318,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2382,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
@@ -2419,7 +2412,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2456,19 +2449,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2516,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
@@ -2543,7 +2536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>120</v>
       </c>
@@ -2569,19 +2562,19 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2629,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>123</v>
       </c>
@@ -2682,16 +2675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2739,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -2766,7 +2759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>126</v>
       </c>
@@ -2792,16 +2785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2849,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
@@ -2908,16 +2901,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2965,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>132</v>
       </c>
@@ -3002,7 +2995,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -3038,16 +3031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3095,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>134</v>
       </c>
@@ -3140,7 +3133,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>139</v>
       </c>
@@ -3185,16 +3178,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3242,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>145</v>
       </c>
@@ -3287,7 +3280,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>146</v>
       </c>
@@ -3332,16 +3325,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3389,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>147</v>
       </c>
@@ -3434,7 +3427,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>148</v>
       </c>
@@ -3479,16 +3472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3536,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>149</v>
       </c>
@@ -3581,7 +3574,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
@@ -3626,16 +3619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3683,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
@@ -3724,7 +3717,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3765,16 +3758,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3822,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -3867,7 +3860,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>153</v>
       </c>
@@ -3912,19 +3905,19 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3979,7 +3972,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
@@ -4013,7 +4006,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>157</v>
       </c>
@@ -4039,16 +4032,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +4096,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
@@ -4137,7 +4130,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>161</v>
       </c>
@@ -4163,19 +4156,19 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4230,7 +4223,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>163</v>
       </c>
@@ -4268,7 +4261,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -4291,7 +4284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>175</v>
       </c>
@@ -4322,7 +4315,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -4348,28 +4341,32 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4421,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
@@ -4456,7 +4453,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4494,16 +4491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4559,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -4592,7 +4593,9 @@
       <c r="K2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
@@ -4602,7 +4605,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4636,7 +4639,9 @@
       <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4653,16 +4658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4717,7 +4722,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
@@ -4749,7 +4754,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4782,16 +4787,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4846,7 +4851,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
@@ -4878,7 +4883,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4908,16 +4913,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4972,7 +4977,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
@@ -5036,16 +5041,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5105,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="16260" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -23,29 +23,27 @@
     <sheet name="RS_10585" sheetId="26" r:id="rId9"/>
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
-    <sheet name="RS_10531" sheetId="35" r:id="rId12"/>
-    <sheet name="RS_10538" sheetId="23" r:id="rId13"/>
-    <sheet name="RS_10536" sheetId="34" r:id="rId14"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId15"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId16"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId17"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId18"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId19"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId20"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId21"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId22"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId23"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId24"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId25"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId26"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId27"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId28"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId29"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId30"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId31"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId32"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId33"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId34"/>
+    <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -109,69 +107,396 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>RS_2389</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>ProductName2</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Case_RS_2389</t>
+  </si>
+  <si>
+    <t>Work Order Search 2</t>
+  </si>
+  <si>
+    <t>Record T&amp;M</t>
+  </si>
+  <si>
+    <t>BlueLake Men Watch</t>
+  </si>
+  <si>
+    <t>GE Product</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>RS_2389_checklist</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>SFM_Auto_2372018162541</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
+  </si>
+  <si>
+    <t>AutoA10539_Auto</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
     <t>SCN_GetPrice_RS_10537</t>
   </si>
   <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t>WO-00003264</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t>WO-00002848</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
     <t>RS_10511_Calender_1</t>
   </si>
   <si>
@@ -199,151 +524,16 @@
     <t>TechName2</t>
   </si>
   <si>
-    <t>WO-00002974</t>
-  </si>
-  <si>
-    <t>WO-00002975</t>
-  </si>
-  <si>
-    <t>WO-00002976</t>
-  </si>
-  <si>
-    <t>WO-00002978</t>
-  </si>
-  <si>
-    <t>WO-00002979</t>
-  </si>
-  <si>
-    <t>WO-00002980</t>
-  </si>
-  <si>
     <t>a240t000000L5IxAAK</t>
   </si>
   <si>
     <t>RS_10513_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003181</t>
-  </si>
-  <si>
-    <t>WO-00003182</t>
-  </si>
-  <si>
     <t>RS_11859_Calender_3</t>
   </si>
   <si>
-    <t>WO-00003210</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
-  </si>
-  <si>
-    <t>WO-00003261</t>
-  </si>
-  <si>
-    <t>P10539121020181328351</t>
-  </si>
-  <si>
-    <t>P10539121020181328352</t>
-  </si>
-  <si>
-    <t>AutoScon12102018133355</t>
-  </si>
-  <si>
-    <t>Auto_1053912102018133339</t>
-  </si>
-  <si>
-    <t>IB1053915102018144235</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10531</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
+    <t>WO-00003237</t>
   </si>
   <si>
     <t>WO-00003256</t>
@@ -352,262 +542,52 @@
     <t>P1053812102018105539</t>
   </si>
   <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
     <t>IB1053812102018105541</t>
   </si>
   <si>
-    <t>SCN_GetPrice_RS_10536</t>
-  </si>
-  <si>
-    <t>WO-00003370</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>RS_10557_592018205141</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>RS_10554_7920189427</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>RS_2389</t>
-  </si>
-  <si>
-    <t>ProductName2</t>
-  </si>
-  <si>
-    <t>ActivityType</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Case_RS_2389</t>
-  </si>
-  <si>
-    <t>Work Order Search 2</t>
-  </si>
-  <si>
-    <t>Record T&amp;M</t>
-  </si>
-  <si>
-    <t>BlueLake Men Watch</t>
-  </si>
-  <si>
-    <t>GE Product</t>
-  </si>
-  <si>
-    <t>Cleanup</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>RS_2389_checklist</t>
-  </si>
-  <si>
-    <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>WO-00003397</t>
-  </si>
-  <si>
-    <t>P1053117102018143218</t>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
   </si>
   <si>
     <t>Salesforceuser</t>
   </si>
   <si>
     <t>0050t000001PqX7AAK</t>
+  </si>
+  <si>
+    <t>WO-00003335</t>
+  </si>
+  <si>
+    <t>WO-00003336</t>
+  </si>
+  <si>
+    <t>WO-00003337</t>
+  </si>
+  <si>
+    <t>WO-00003338</t>
+  </si>
+  <si>
+    <t>WO-00003339</t>
+  </si>
+  <si>
+    <t>WO-00003340</t>
+  </si>
+  <si>
+    <t>WO-00003346</t>
+  </si>
+  <si>
+    <t>WO-00003347</t>
+  </si>
+  <si>
+    <t>WO-00003348</t>
+  </si>
+  <si>
+    <t>WO-00003349</t>
+  </si>
+  <si>
+    <t>WO-00003361</t>
   </si>
 </sst>
 </file>
@@ -779,10 +759,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1172,19 +1152,19 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1182,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1261,18 +1241,18 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1285,14 +1265,10 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.6640625" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1351,48 +1327,42 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1405,15 +1375,13 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,28 +1441,36 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1507,14 +1483,10 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1573,36 +1545,48 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>82</v>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1612,17 +1596,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,24 +1624,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1710,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1730,49 +1769,33 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,10 +1807,13 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1844,38 +1870,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1885,220 +1911,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2157,19 +1976,19 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2189,19 +2008,19 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2225,107 +2044,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2384,16 +2115,16 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2414,16 +2145,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2448,7 +2179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2456,7 +2187,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -2518,42 +2249,357 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2569,10 +2615,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2631,42 +2674,48 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2676,239 +2725,18 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2967,16 +2795,16 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2997,16 +2825,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -3030,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -3038,7 +2866,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3097,28 +2925,28 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3135,28 +2963,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3177,7 +3005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -3185,7 +3013,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3244,28 +3072,28 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3282,28 +3110,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3324,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -3332,7 +3160,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3391,28 +3219,28 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3429,28 +3257,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3471,7 +3299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -3479,7 +3307,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3538,28 +3366,28 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3576,28 +3404,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3618,15 +3446,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3639,10 +3747,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3685,23 +3793,21 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3719,22 +3825,19 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3759,163 +3862,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3974,22 +3927,22 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4006,24 +3959,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4031,15 +3984,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4098,25 +4054,29 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4130,175 +4090,44 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4317,19 +4146,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4340,13 +4169,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4357,12 +4186,15 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4423,19 +4255,19 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4455,19 +4287,19 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4495,11 +4327,15 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4561,40 +4397,40 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -4606,41 +4442,41 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
+        <v>165</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4662,10 +4498,14 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4724,19 +4564,19 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4755,21 +4595,27 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4790,11 +4636,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4853,19 +4702,19 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4884,18 +4733,27 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>55</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4920,7 +4778,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4979,60 +4837,60 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5048,7 +4906,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5107,48 +4965,48 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_80FD10E9CF0AA3C0BDFA85FC4B02A12E8F24332A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="22" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -45,25 +46,25 @@
     <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
     <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="176">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -107,18 +108,453 @@
     <t>Data13</t>
   </si>
   <si>
+    <t>SCN_GetPrice_RS_10537</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t>WO-00003237</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10534</t>
+  </si>
+  <si>
+    <t>Work Order Number2</t>
+  </si>
+  <si>
+    <t>WO-00003104</t>
+  </si>
+  <si>
+    <t>WO-00003105</t>
+  </si>
+  <si>
+    <t>RS_10525_Calender_6</t>
+  </si>
+  <si>
+    <t>ExploreSearch</t>
+  </si>
+  <si>
+    <t>ExploreChildSearch</t>
+  </si>
+  <si>
+    <t>WorkOrder Number</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>AUTOMATION SEARCH</t>
+  </si>
+  <si>
+    <t>Work Orders</t>
+  </si>
+  <si>
+    <t>WO-00003361</t>
+  </si>
+  <si>
+    <t>a240t000000GglLAAS</t>
+  </si>
+  <si>
+    <t>RS_10565_Recent_Items</t>
+  </si>
+  <si>
+    <t>ViewProcessNameCustom</t>
+  </si>
+  <si>
+    <t>CreateNewCustomrecord</t>
+  </si>
+  <si>
+    <t>View Custom Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Custom Object </t>
+  </si>
+  <si>
+    <t>RS_10511_Calender_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_1</t>
+  </si>
+  <si>
+    <t>WO_SFDC_2</t>
+  </si>
+  <si>
+    <t>WO_SFDC_3</t>
+  </si>
+  <si>
+    <t>WO_SVMX_1</t>
+  </si>
+  <si>
+    <t>WO_SVMX_2</t>
+  </si>
+  <si>
+    <t>WO_SVMX_3</t>
+  </si>
+  <si>
+    <t>TechName1</t>
+  </si>
+  <si>
+    <t>TechName2</t>
+  </si>
+  <si>
+    <t>Salesforceuser</t>
+  </si>
+  <si>
+    <t>WO-00003335</t>
+  </si>
+  <si>
+    <t>WO-00003336</t>
+  </si>
+  <si>
+    <t>WO-00003337</t>
+  </si>
+  <si>
+    <t>WO-00003338</t>
+  </si>
+  <si>
+    <t>WO-00003339</t>
+  </si>
+  <si>
+    <t>WO-00003340</t>
+  </si>
+  <si>
+    <t>a240t000000L5IxAAK</t>
+  </si>
+  <si>
+    <t>0050t000001PqX7AAK</t>
+  </si>
+  <si>
+    <t>RS_10513_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003346</t>
+  </si>
+  <si>
+    <t>WO-00003347</t>
+  </si>
+  <si>
+    <t>RS_11859_Calender_3</t>
+  </si>
+  <si>
+    <t>WO-00003348</t>
+  </si>
+  <si>
+    <t>WO-00003349</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>ChecklistName_AllVersions</t>
+  </si>
+  <si>
+    <t>ChecklistName_FirstVersion</t>
+  </si>
+  <si>
+    <t>ChecklistName_LastVersion</t>
+  </si>
+  <si>
+    <t>EditProcessName</t>
+  </si>
+  <si>
+    <t>ChecklistOpDocName</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>Default title for Checklist</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
+  </si>
+  <si>
+    <t>Manual_Checklist_Edit_WO_PROCESS</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ChecklistName</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
+  </si>
+  <si>
+    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceNotCovered_RS_10532</t>
+  </si>
+  <si>
+    <t>WO-00002804</t>
+  </si>
+  <si>
+    <t>SCN_GetPriceSCON_RS_10539</t>
+  </si>
+  <si>
+    <t>Product1 Name</t>
+  </si>
+  <si>
+    <t>Product2 Name</t>
+  </si>
+  <si>
+    <t>ServiceContract Name</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Installed Product Name</t>
+  </si>
+  <si>
+    <t>WO-00003089</t>
+  </si>
+  <si>
+    <t>P1053951020181028521</t>
+  </si>
+  <si>
+    <t>P1053951020181028522</t>
+  </si>
+  <si>
+    <t>AutoScon5102018103339</t>
+  </si>
+  <si>
+    <t>AutoA10539_Auto</t>
+  </si>
+  <si>
+    <t>IB1053915102018144235</t>
+  </si>
+  <si>
+    <t>SCN_GetPrice_RS_10538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name </t>
+  </si>
+  <si>
+    <t>WO-00003256</t>
+  </si>
+  <si>
+    <t>P1053812102018105539</t>
+  </si>
+  <si>
+    <t>AutoA10538_Auto</t>
+  </si>
+  <si>
+    <t>IB1053812102018105541</t>
+  </si>
+  <si>
+    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
+  </si>
+  <si>
+    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
+  </si>
+  <si>
+    <t>Manual_RS10586_ChecklistOPDOC</t>
+  </si>
+  <si>
+    <t>RS_10566_Acc_Pro_History</t>
+  </si>
+  <si>
+    <t>ViewProcessNameAccPro</t>
+  </si>
+  <si>
+    <t>View Work Order</t>
+  </si>
+  <si>
+    <t>SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>Data_SCN_DVR_RS_10550</t>
+  </si>
+  <si>
+    <t>AUTO_RS10550_DVR</t>
+  </si>
+  <si>
+    <t>SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
+  </si>
+  <si>
+    <t>Manual_RS_10544_SOU</t>
+  </si>
+  <si>
+    <t>RS-10556_mapping</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>RS_10556_mapping</t>
+  </si>
+  <si>
+    <t>WO-00002089</t>
+  </si>
+  <si>
+    <t>RS-10557_mapping</t>
+  </si>
+  <si>
+    <t>Installed Product</t>
+  </si>
+  <si>
+    <t>RS_10557_Child_Mapping</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
+  </si>
+  <si>
+    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
+  </si>
+  <si>
+    <t>SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
+  </si>
+  <si>
+    <t>Scenario7OPDOC</t>
+  </si>
+  <si>
+    <t>RS-10554_mapping</t>
+  </si>
+  <si>
+    <t>RS_10554_field_mapping</t>
+  </si>
+  <si>
+    <t>RS_10542</t>
+  </si>
+  <si>
+    <t>IssueText</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>SCN_RS_10542</t>
+  </si>
+  <si>
+    <t>Installed Products</t>
+  </si>
+  <si>
+    <t>RS_10540_Process</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>RS_10541</t>
+  </si>
+  <si>
+    <t>SCN_RS_10541</t>
+  </si>
+  <si>
+    <t>RS_10540</t>
+  </si>
+  <si>
+    <t>SCN_RS_10540</t>
+  </si>
+  <si>
+    <t>RS_10552</t>
+  </si>
+  <si>
+    <t>SCN_RS_10552</t>
+  </si>
+  <si>
+    <t>RS_10552Sample</t>
+  </si>
+  <si>
+    <t>SANITY6</t>
+  </si>
+  <si>
+    <t>DATA_SANITY6</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>lscenario6</t>
+  </si>
+  <si>
+    <t>SANITY5</t>
+  </si>
+  <si>
+    <t>DATA_SANITY5</t>
+  </si>
+  <si>
+    <t>SanityScenario5</t>
+  </si>
+  <si>
+    <t>Rule is billing type cannot be loan</t>
+  </si>
+  <si>
+    <t>Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Data_Scenario7_Checklist</t>
+  </si>
+  <si>
+    <t>Scenario7_checklist</t>
+  </si>
+  <si>
     <t>RS_2389</t>
   </si>
   <si>
-    <t>ExploreSearch</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ProductName1</t>
-  </si>
-  <si>
     <t>ProductName2</t>
   </si>
   <si>
@@ -155,446 +591,14 @@
     <t>RS_2389_checklist</t>
   </si>
   <si>
-    <t>ExploreChildSearch</t>
-  </si>
-  <si>
-    <t>ChecklistName</t>
-  </si>
-  <si>
-    <t>AUTOMATION SEARCH</t>
-  </si>
-  <si>
-    <t>Default title for Checklist</t>
-  </si>
-  <si>
-    <t>Work Orders</t>
-  </si>
-  <si>
     <t>SFM_Auto_2372018162541</t>
-  </si>
-  <si>
-    <t>Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>ChecklistOpDocName</t>
-  </si>
-  <si>
-    <t>Data_Scenario7_Checklist</t>
-  </si>
-  <si>
-    <t>Scenario7_checklist</t>
-  </si>
-  <si>
-    <t>Scenario7OPDOC</t>
-  </si>
-  <si>
-    <t>SANITY5</t>
-  </si>
-  <si>
-    <t>IssueText</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>DATA_SANITY5</t>
-  </si>
-  <si>
-    <t>SanityScenario5</t>
-  </si>
-  <si>
-    <t>Rule is billing type cannot be loan</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>SANITY6</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>DATA_SANITY6</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>lscenario6</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>RS_10552</t>
-  </si>
-  <si>
-    <t>SCN_RS_10552</t>
-  </si>
-  <si>
-    <t>RS_10552Sample</t>
-  </si>
-  <si>
-    <t>RS_10540</t>
-  </si>
-  <si>
-    <t>SCN_RS_10540</t>
-  </si>
-  <si>
-    <t>Installed Products</t>
-  </si>
-  <si>
-    <t>RS_10540_Process</t>
-  </si>
-  <si>
-    <t>RS_10541</t>
-  </si>
-  <si>
-    <t>SCN_RS_10541</t>
-  </si>
-  <si>
-    <t>RS_10542</t>
-  </si>
-  <si>
-    <t>SCN_RS_10542</t>
-  </si>
-  <si>
-    <t>RS-10554_mapping</t>
-  </si>
-  <si>
-    <t>Installed Product</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>EditProcessName</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_1_RS-10577_SOU</t>
-  </si>
-  <si>
-    <t>Manual_Checklist_Edit_WO_PROCESS</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_2_RS-10578_DVR</t>
-  </si>
-  <si>
-    <t>Manual_SCN_Checklist_2_RS-10578_ DVR</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_3_RS-10579_Entry_Exit_Criteria</t>
-  </si>
-  <si>
-    <t>SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>Data_SCN_Checklist_4_RS-10580_Sections</t>
-  </si>
-  <si>
-    <t>ManualSCN_Checklist_4_RS-10580_Checklist_Sections</t>
-  </si>
-  <si>
-    <t>RS-10557_mapping</t>
-  </si>
-  <si>
-    <t>RS-10556_mapping</t>
-  </si>
-  <si>
-    <t>WorkOrder Number</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>RS_10556_mapping</t>
-  </si>
-  <si>
-    <t>WO-00002089</t>
-  </si>
-  <si>
-    <t>SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Data_SCN_SourceObjectUpdate_RS_10544</t>
-  </si>
-  <si>
-    <t>Manual_RS_10544_SOU</t>
-  </si>
-  <si>
-    <t>SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>Data_SCN_DVR_RS_10550</t>
-  </si>
-  <si>
-    <t>AUTO_RS10550_DVR</t>
-  </si>
-  <si>
-    <t>RS_10566_Acc_Pro_History</t>
-  </si>
-  <si>
-    <t>ViewProcessNameAccPro</t>
-  </si>
-  <si>
-    <t>View Work Order</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_2_RS-10586</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_2_RS-10586snd</t>
-  </si>
-  <si>
-    <t>Manual_RS10586_ChecklistOPDOC</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10538</t>
-  </si>
-  <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name </t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Installed Product Name</t>
-  </si>
-  <si>
-    <t>AutoA10538_Auto</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceSCON_RS_10539</t>
-  </si>
-  <si>
-    <t>Product1 Name</t>
-  </si>
-  <si>
-    <t>Product2 Name</t>
-  </si>
-  <si>
-    <t>ServiceContract Name</t>
-  </si>
-  <si>
-    <t>WO-00003089</t>
-  </si>
-  <si>
-    <t>P1053951020181028521</t>
-  </si>
-  <si>
-    <t>P1053951020181028522</t>
-  </si>
-  <si>
-    <t>AutoScon5102018103339</t>
-  </si>
-  <si>
-    <t>AutoA10539_Auto</t>
-  </si>
-  <si>
-    <t>SCN_GetPriceNotCovered_RS_10532</t>
-  </si>
-  <si>
-    <t>WO-00002804</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_1_RS-10585</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10585_inProg</t>
-  </si>
-  <si>
-    <t>Manual_RS10585_ChecklistOPDOC_InProgOP</t>
-  </si>
-  <si>
-    <t>SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ChecklistName_AllVersions</t>
-  </si>
-  <si>
-    <t>ChecklistName_FirstVersion</t>
-  </si>
-  <si>
-    <t>ChecklistName_LastVersion</t>
-  </si>
-  <si>
-    <t>Data_SCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_allversions</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_firstversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587_lastversion</t>
-  </si>
-  <si>
-    <t>ManualSCN_ChecklistOPDOC_3_RS-10587</t>
-  </si>
-  <si>
-    <t>RS_10565_Recent_Items</t>
-  </si>
-  <si>
-    <t>ViewProcessNameCustom</t>
-  </si>
-  <si>
-    <t>CreateNewCustomrecord</t>
-  </si>
-  <si>
-    <t>View Custom Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create New Custom Object </t>
-  </si>
-  <si>
-    <t>RS_10525_Calender_6</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>a240t000000GglLAAS</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10534</t>
-  </si>
-  <si>
-    <t>Work Order Number2</t>
-  </si>
-  <si>
-    <t>WO-00003104</t>
-  </si>
-  <si>
-    <t>WO-00003105</t>
-  </si>
-  <si>
-    <t>SCN_GetPrice_RS_10537</t>
-  </si>
-  <si>
-    <t>RS_10511_Calender_1</t>
-  </si>
-  <si>
-    <t>WO_SFDC_1</t>
-  </si>
-  <si>
-    <t>WO_SFDC_2</t>
-  </si>
-  <si>
-    <t>WO_SFDC_3</t>
-  </si>
-  <si>
-    <t>WO_SVMX_1</t>
-  </si>
-  <si>
-    <t>WO_SVMX_2</t>
-  </si>
-  <si>
-    <t>WO_SVMX_3</t>
-  </si>
-  <si>
-    <t>TechName1</t>
-  </si>
-  <si>
-    <t>TechName2</t>
-  </si>
-  <si>
-    <t>a240t000000L5IxAAK</t>
-  </si>
-  <si>
-    <t>RS_10513_Calender_3</t>
-  </si>
-  <si>
-    <t>RS_11859_Calender_3</t>
-  </si>
-  <si>
-    <t>WO-00003237</t>
-  </si>
-  <si>
-    <t>WO-00003256</t>
-  </si>
-  <si>
-    <t>P1053812102018105539</t>
-  </si>
-  <si>
-    <t>IB1053812102018105541</t>
-  </si>
-  <si>
-    <t>RS_10554_field_mapping</t>
-  </si>
-  <si>
-    <t>RS_10557_Child_Mapping</t>
-  </si>
-  <si>
-    <t>Salesforceuser</t>
-  </si>
-  <si>
-    <t>0050t000001PqX7AAK</t>
-  </si>
-  <si>
-    <t>WO-00003335</t>
-  </si>
-  <si>
-    <t>WO-00003336</t>
-  </si>
-  <si>
-    <t>WO-00003337</t>
-  </si>
-  <si>
-    <t>WO-00003338</t>
-  </si>
-  <si>
-    <t>WO-00003339</t>
-  </si>
-  <si>
-    <t>WO-00003340</t>
-  </si>
-  <si>
-    <t>WO-00003346</t>
-  </si>
-  <si>
-    <t>WO-00003347</t>
-  </si>
-  <si>
-    <t>WO-00003348</t>
-  </si>
-  <si>
-    <t>WO-00003349</t>
-  </si>
-  <si>
-    <t>WO-00003361</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,7 +736,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -756,13 +760,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1075,27 +1078,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,21 +1153,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1175,16 +1178,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,20 +1242,20 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1261,16 +1264,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,44 +1332,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1371,20 +1384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,38 +1452,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1479,16 +1492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,50 +1556,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1595,20 +1608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,38 +1676,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1703,16 +1716,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{33642244-9AC9-5136-AF77-195C889548CE}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,33 +1780,33 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -1803,19 +1816,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D624DF06-3800-545C-AC8D-BADC89115800}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,38 +1883,38 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1910,16 +1923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{11A3ACCB-1F19-5AC9-A611-4158731A345D}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,21 +1987,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2006,21 +2019,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2045,20 +2058,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F1CDC194-CB96-5A2D-8E84-222F42300CFA}">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,18 +2126,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2143,18 +2156,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2180,19 +2193,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2247,44 +2260,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2293,16 +2306,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,26 +2370,26 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2385,19 +2398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{34904945-5288-588E-9F07-34343C13E9F2}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,44 +2465,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2498,16 +2511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{731C365F-4EDE-5636-9D2D-917179ED8537}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2562,44 +2575,44 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2608,16 +2621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{0801C90D-E949-51CC-9495-7D82D7DEDABF}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,50 +2685,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2724,21 +2737,21 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{AB5DE215-5931-5800-A1A6-141DC62B4C85}">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2793,18 +2806,18 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2823,18 +2836,18 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2859,16 +2872,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{96AA9D09-0E06-52DD-9EE1-B522AFA11096}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2923,30 +2936,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2961,30 +2974,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3006,16 +3019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{2C1BA805-FFAE-53D9-94C0-3D95D45B0C9C}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,30 +3083,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3108,30 +3121,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3153,16 +3166,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{94BC7849-1D55-59FD-A4A3-F33B65D9F6CB}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,30 +3230,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3255,30 +3268,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3300,16 +3313,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F4A53677-9E12-59C4-BAB1-211CDE2C826E}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3364,30 +3377,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3402,30 +3415,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3447,16 +3460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{23B2C380-326F-580B-8990-D38B2516F165}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,30 +3524,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -3549,30 +3562,30 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3594,19 +3607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{EE242A16-C6B8-5192-B120-522BC795EE76}">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3661,24 +3674,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3695,24 +3708,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3721,22 +3734,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3791,21 +3804,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -3823,21 +3836,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3861,16 +3874,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{7075697D-051A-5480-9A35-AA80E904E1A1}">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3925,24 +3938,24 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3959,24 +3972,24 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3985,19 +3998,19 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{C7A11F4D-6E51-5B1A-9CF2-8FFD2B06F078}">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,30 +4065,30 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -4090,44 +4103,44 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4144,21 +4157,21 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="6"/>
@@ -4170,35 +4183,35 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{D979DC6D-665A-5B40-B235-9A07D260EAB6}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4253,21 +4266,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4285,21 +4298,21 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4323,24 +4336,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4395,42 +4408,42 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -4441,42 +4454,42 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>164</v>
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>163</v>
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4494,20 +4507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4562,21 +4575,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4594,28 +4607,22 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>170</v>
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+        <v>55</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4633,19 +4640,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4700,21 +4707,21 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4732,28 +4739,22 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4771,16 +4772,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,62 +4836,62 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4899,16 +4900,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4963,50 +4964,50 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/fsaautomation/resources/TestData.xlsx
+++ b/fsaautomation/resources/TestData.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_80FD10E9CF0AA3C0BDFA85FC4B02A12E8F24332A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="22" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_10537" sheetId="1" r:id="rId1"/>
@@ -24,27 +24,28 @@
     <sheet name="RS_10585" sheetId="26" r:id="rId9"/>
     <sheet name="RS_10532" sheetId="25" r:id="rId10"/>
     <sheet name="RS_10539" sheetId="24" r:id="rId11"/>
-    <sheet name="RS_10538" sheetId="23" r:id="rId12"/>
-    <sheet name="RS_10586" sheetId="22" r:id="rId13"/>
-    <sheet name="RS_10566" sheetId="21" r:id="rId14"/>
-    <sheet name="RS_10550" sheetId="20" r:id="rId15"/>
-    <sheet name="RS_10544" sheetId="19" r:id="rId16"/>
-    <sheet name="RS_10556" sheetId="18" r:id="rId17"/>
-    <sheet name="RS_10557" sheetId="17" r:id="rId18"/>
-    <sheet name="RS_10580" sheetId="16" r:id="rId19"/>
-    <sheet name="RS_10579" sheetId="14" r:id="rId20"/>
-    <sheet name="RS_10578" sheetId="13" r:id="rId21"/>
-    <sheet name="RS_10577" sheetId="12" r:id="rId22"/>
-    <sheet name="RS_10554" sheetId="11" r:id="rId23"/>
-    <sheet name="RS_10542" sheetId="10" r:id="rId24"/>
-    <sheet name="RS_10541" sheetId="9" r:id="rId25"/>
-    <sheet name="RS_10540" sheetId="8" r:id="rId26"/>
-    <sheet name="RS_10552" sheetId="7" r:id="rId27"/>
-    <sheet name="SANITY6" sheetId="6" r:id="rId28"/>
-    <sheet name="SANITY5" sheetId="5" r:id="rId29"/>
-    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId30"/>
-    <sheet name="RS_2389" sheetId="2" r:id="rId31"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId32"/>
+    <sheet name="RS_10536" sheetId="34" r:id="rId12"/>
+    <sheet name="RS_10538" sheetId="23" r:id="rId13"/>
+    <sheet name="RS_10586" sheetId="22" r:id="rId14"/>
+    <sheet name="RS_10566" sheetId="21" r:id="rId15"/>
+    <sheet name="RS_10550" sheetId="20" r:id="rId16"/>
+    <sheet name="RS_10544" sheetId="19" r:id="rId17"/>
+    <sheet name="RS_10556" sheetId="18" r:id="rId18"/>
+    <sheet name="RS_10557" sheetId="17" r:id="rId19"/>
+    <sheet name="RS_10580" sheetId="16" r:id="rId20"/>
+    <sheet name="RS_10579" sheetId="14" r:id="rId21"/>
+    <sheet name="RS_10578" sheetId="13" r:id="rId22"/>
+    <sheet name="RS_10577" sheetId="12" r:id="rId23"/>
+    <sheet name="RS_10554" sheetId="11" r:id="rId24"/>
+    <sheet name="RS_10542" sheetId="10" r:id="rId25"/>
+    <sheet name="RS_10541" sheetId="9" r:id="rId26"/>
+    <sheet name="RS_10540" sheetId="8" r:id="rId27"/>
+    <sheet name="RS_10552" sheetId="7" r:id="rId28"/>
+    <sheet name="SANITY6" sheetId="6" r:id="rId29"/>
+    <sheet name="SANITY5" sheetId="5" r:id="rId30"/>
+    <sheet name="Scenario7_Checklist" sheetId="4" r:id="rId31"/>
+    <sheet name="RS_2389" sheetId="2" r:id="rId32"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId33"/>
   </sheets>
   <calcPr calcId="179020" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -324,40 +325,43 @@
     <t>Installed Product Name</t>
   </si>
   <si>
-    <t>WO-00003089</t>
-  </si>
-  <si>
-    <t>P1053951020181028521</t>
-  </si>
-  <si>
-    <t>P1053951020181028522</t>
-  </si>
-  <si>
-    <t>AutoScon5102018103339</t>
-  </si>
-  <si>
-    <t>AutoA10539_Auto</t>
+    <t>WO-00003466</t>
+  </si>
+  <si>
+    <t>P10539181020181256481</t>
+  </si>
+  <si>
+    <t>P10539181020181256482</t>
+  </si>
+  <si>
+    <t>AutoScon1810201813212</t>
+  </si>
+  <si>
+    <t>Auto_105391810201813158</t>
   </si>
   <si>
     <t>IB1053915102018144235</t>
   </si>
   <si>
+    <t>SCN_GetPrice_RS_10536</t>
+  </si>
+  <si>
     <t>SCN_GetPrice_RS_10538</t>
   </si>
   <si>
     <t xml:space="preserve">Product Name </t>
   </si>
   <si>
-    <t>WO-00003256</t>
-  </si>
-  <si>
-    <t>P1053812102018105539</t>
+    <t>WO-00003464</t>
+  </si>
+  <si>
+    <t>P1053818102018123548</t>
   </si>
   <si>
     <t>AutoA10538_Auto</t>
   </si>
   <si>
-    <t>IB1053812102018105541</t>
+    <t>IB1053818102018123550</t>
   </si>
   <si>
     <t>SCN_ChecklistOPDOC_2_RS-10586</t>
@@ -762,10 +766,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1082,7 +1086,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1267,14 +1271,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1384,6 +1388,49 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C9F66-DE32-407C-8352-EDC4D209770F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0BAA6026-4B65-5428-B09E-8D45E4A3F823}">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1454,13 +1501,13 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>84</v>
@@ -1471,19 +1518,19 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1558,7 +1605,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1581,7 +1628,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
@@ -1593,13 +1640,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1617,8 +1664,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
@@ -1678,7 +1725,7 @@
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -1687,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>64</v>
@@ -1695,7 +1742,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
@@ -1704,10 +1751,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1782,7 +1829,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1797,13 +1844,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>27</v>
@@ -1815,7 +1862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1885,7 +1932,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1902,13 +1949,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>27</v>
@@ -1922,7 +1969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -1989,7 +2036,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2021,19 +2068,19 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2057,7 +2104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2067,8 +2114,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2128,7 +2175,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2158,16 +2205,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2186,119 +2233,6 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,6 +2332,119 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0" xr3:uid="{CF366857-BBDD-5199-9BC9-FF52903B0715}">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2467,7 +2514,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2487,7 +2534,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
@@ -2499,7 +2546,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>71</v>
@@ -2510,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2577,7 +2624,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2597,7 +2644,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
@@ -2609,7 +2656,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>71</v>
@@ -2620,7 +2667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2687,7 +2734,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -2710,7 +2757,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
@@ -2722,10 +2769,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>71</v>
@@ -2736,7 +2783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2746,9 +2793,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
@@ -2808,7 +2855,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2838,16 +2885,16 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2871,7 +2918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2938,7 +2985,7 @@
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -2950,16 +2997,16 @@
         <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2976,28 +3023,28 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>142</v>
       <